--- a/Results/cancer_data.xlsx
+++ b/Results/cancer_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sharan\Desktop\Research\Feature Selection\Research Output\Cancer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7520915C-5BF1-4EA5-AE20-8A1686D2D0C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE4001B-9A84-4F26-BFF1-6788F6603367}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10296" xr2:uid="{1218F048-39F3-4C02-94E7-856BB3EE0AFC}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{1218F048-39F3-4C02-94E7-856BB3EE0AFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
   <si>
     <t>Fisher</t>
   </si>
@@ -63,6 +64,39 @@
   </si>
   <si>
     <t>AMBER</t>
+  </si>
+  <si>
+    <t>AMBER (Relevance)</t>
+  </si>
+  <si>
+    <t>AMBER (Retraining)</t>
+  </si>
+  <si>
+    <t>CMICOT</t>
+  </si>
+  <si>
+    <t>CCM</t>
+  </si>
+  <si>
+    <t>L2X</t>
+  </si>
+  <si>
+    <t>AFS</t>
+  </si>
+  <si>
+    <t>AMBER (R3 = 0.1)</t>
+  </si>
+  <si>
+    <t>AMBER (R3 = 0.5)</t>
+  </si>
+  <si>
+    <t>AMBER (R3 = 2)</t>
+  </si>
+  <si>
+    <t>AMBER (R3 = 10)</t>
+  </si>
+  <si>
+    <t>AMBER (R3 = 0.5) with retraining</t>
   </si>
 </sst>
 </file>
@@ -107,6 +141,17 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF469990"/>
+      <color rgb="FFF58231"/>
+      <color rgb="FFFFFAC8"/>
+      <color rgb="FFAAFFC3"/>
+      <color rgb="FFFABED4"/>
+      <color rgb="FF911EB4"/>
+      <color rgb="FF910000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -157,7 +202,9 @@
           <c:spPr>
             <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -166,223 +213,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Sheet1!$P$3:$P$32</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="30"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.58479532163747194</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.4619883040935377</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.4619883040935377</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.1695906432747876</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.29239766081873597</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.58479532163747194</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0.29239766081873597</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0.29239766081873597</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0.29239766081873597</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0.29239766081873597</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0.58479532163747194</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>0.29239766081870755</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>0.87719298245610844</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>1.7543859649122595</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>1.169590643274816</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>1.4619883040935946</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>0.58479532163742931</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>0.87719298245613686</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Sheet1!$Q$3:$Q$32</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="30"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.29239766081872176</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.1695906432748018</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.1695906432748728</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.1695906432748728</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.5847953216374151</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.58479532163745773</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.29239766081872176</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0.58479532163745773</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0.58479532163745773</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0.58479532163745773</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0.58479532163745773</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0.29239766081872176</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>0.29239766081870755</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0.29239766081870755</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>0.58479532163738668</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>0.29239766081870755</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>0.29239766081870755</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>0.29239766081870755</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>0.87719298245609423</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>0.87719298245613686</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>0.58479532163738668</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>1.1695906432749013</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>1.1695906432748728</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>0.87719298245616528</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$K$3:$K$32</c:f>
@@ -597,7 +427,7 @@
           <c:spPr>
             <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -606,223 +436,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Sheet1!$W$3:$W$32</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="30"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.29239766081870755</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.87719298245617949</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.58479532163747194</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.29239766081870755</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.29239766081873597</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0.58479532163747194</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1.1695906432748728</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0.29239766081873597</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>1.4619883040935377</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0.29239766081873597</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>1.1695906432748728</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>0.87719298245612265</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>0.87719298245612265</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>0.87719298245612265</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>0.5847953216374151</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>0.5847953216374151</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Sheet1!$X$3:$X$32</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="30"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.87719298245612265</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.29239766081872176</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.58479532163745773</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.29239766081870755</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.29239766081870755</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0.29239766081872176</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0.58479532163742931</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0.58479532163745773</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0.29239766081870755</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>1.1695906432748728</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0.58479532163747194</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0.58479532163742931</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>0.87719298245617949</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>0.87719298245617949</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>0.87719298245617949</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>0.29239766081870755</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>0.29239766081869334</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>0.29239766081869334</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$V$3:$V$32</c:f>
@@ -938,7 +551,7 @@
           <c:spPr>
             <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -947,223 +560,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Sheet1!$AD$3:$AD$32</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="30"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.7543859649122595</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.58479532163742931</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.29239766081869334</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.87719298245610844</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.29239766081870755</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>1.169590643274816</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0.87719298245610844</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1.169590643274816</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>1.1695906432747876</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0.29239766081870755</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0.29239766081870755</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>1.1695906432748302</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>1.7543859649123021</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>0.58479532163744352</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>0.87719298245616528</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>1.7543859649123306</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>0.29239766081873597</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>0.58479532163742931</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>1.4619883040935946</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Sheet1!$AE$3:$AE$32</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="30"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.87719298245613686</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.1695906432748728</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.5847953216374151</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1.1695906432748018</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.87719298245609423</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0.58479532163738668</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0.87719298245609423</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0.58479532163738668</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0.5847953216374151</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0.58479532163738668</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>0.29239766081869334</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0.58479532163738668</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>0.29239766081869334</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>1.4619883040935662</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>1.7543859649123021</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>1.1695906432748586</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>0.29239766081870755</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>0.29239766081870755</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>0.87719298245613686</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>0.87719298245616528</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>0.58479532163745773</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>1.1695906432748728</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>1.1695906432749013</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$AC$3:$AC$32</c:f>
@@ -1279,7 +675,7 @@
           <c:spPr>
             <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="F58231"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1288,223 +684,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Sheet1!$AK$3:$AK$32</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="30"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.1695906432748728</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.1695906432748728</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.87719298245617949</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1.1695906432748586</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.29239766081873597</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0.58479532163744352</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>1.1695906432748586</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0.58479532163742931</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>1.1695906432748586</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>0.58479532163742931</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0.58479532163742931</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>0.87719298245616528</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0.87719298245616528</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>0.58479532163744352</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>1.1695906432748586</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>1.1695906432748586</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>1.7543859649122595</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>0.87719298245613686</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>1.7543859649122595</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>1.4619883040935662</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Sheet1!$AL$3:$AL$32</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="30"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.58479532163742931</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.58479532163742931</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.87719298245612265</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.29239766081869334</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.29239766081869334</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.58479532163744352</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.58479532163747194</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>1.1695906432748586</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0.58479532163744352</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1.1695906432748728</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0.58479532163744352</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>1.1695906432748728</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>1.1695906432748728</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>1.7543859649123306</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>1.7543859649123306</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>1.1695906432748586</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>0.29239766081869334</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>0.29239766081869334</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>0.58479532163744352</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>0.58479532163744352</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>0.87719298245613686</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>1.7543859649122595</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>0.87719298245613686</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>2.9239766081871323</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$AJ$3:$AJ$32</c:f>
@@ -1612,15 +791,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="7"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>AMBER</c:v>
+            <c:v>CMICOT</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="AAFFC3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1629,223 +808,504 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Sheet1!$AR$3:$AR$32</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="30"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.66666666666669983</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.29239766081870755</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.58479532163742931</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1.1695906432748586</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>1.1695906432748444</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>1.1695906432748728</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>1.1695906432748728</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0.87719298245617949</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0.54385964912283669</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0.29239766081870755</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>1.1695906432748728</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>1.1695906432748728</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>0.29239766081870755</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>0.87719298245617949</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>0.87719298245617949</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>0.29239766081873597</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>0.29239766081873597</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>1.3742690058479639</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>0.46783625730994061</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Sheet1!$AS$3:$AS$32</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="30"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.29239766081870755</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.45614035087719174</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.58479532163738668</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1.1695906432748728</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1.4619883040935377</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>1.4619883040935662</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0.58479532163742931</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0.58479532163742931</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0.87719298245612265</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0.33333333333335702</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>0.58479532163742931</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0.58479532163742931</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0.29239766081869334</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>1.1695906432748018</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0.29239766081870755</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>1.1695906432748018</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>0.58479532163740089</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>0.87719298245612265</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>0.87719298245612265</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>0.58479532163745773</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>0.58479532163745773</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>0.29239766081870755</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>2.7485380116959277</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>0.67251461988306005</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$36:$O$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>96.491228070175396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.168421052631516</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.571228070175394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.034561403508746</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.95456140350872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.391228070175387</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.455087719298163</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.345614035087692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.551228070175398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.934561403508724</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.072280701754366</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98.842280701754362</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97.375087719298165</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96.744561403508726</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96.664561403508728</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94.399649122806991</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>94.15631578947368</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92.952456140350819</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>93.409122807017468</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>93.165789473684143</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>93.172456140350803</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>94.106315789473669</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>95.133508771929769</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94.973508771929758</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94.312982456140332</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>93.139122807017472</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>94.176315789473662</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>96.204035087719305</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>93.455789473684135</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>90.164210526315742</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A68-455F-953A-20754B042A2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>CCM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$36:$V$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>96.491228070175396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.457368421052635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.291228070175393</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.322280701754366</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.647894736842048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.514561403508722</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.22789473684206</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.211754385964852</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.101228070175395</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.202280701754376</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99.192807017543814</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98.142280701754373</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97.638947368421029</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97.355087719298169</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97.882280701754368</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>97.962280701754366</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>97.885614035087698</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97.251754385964844</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>97.118421052631504</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>94.433508771929766</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>95.280701754385973</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96.808421052631502</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>96.094561403508735</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>96.101228070175395</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>96.264561403508722</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>95.570701754385979</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>93.529649122806987</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>93.147251461988276</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>92.602456140350796</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>90.400877192982378</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A68-455F-953A-20754B042A2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>L2X</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FABED4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$36:$AC$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>96.491228070175396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.10280701754381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.197894736842059</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.067894736842064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.222280701754357</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.065087719298162</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.812280701754375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.50508771929816</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.311754385964832</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.851754385964838</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97.108421052631499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95.770701754385968</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97.421754385964846</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95.921228070175403</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95.507368421052618</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96.2212280701754</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95.780701754385973</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95.004035087719288</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95.03497076023389</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>94.696842105263102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94.102982456140339</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>95.644035087719303</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>92.041929824561365</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92.485789473684136</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>92.519122807017467</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>91.611929824561358</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>90.811403508771832</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>92.922456140350803</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>93.369649122807004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92.105263157894697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3A68-455F-953A-20754B042A2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>AFS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AJ$36:$AJ$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>96.491228070175396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.971754385964843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.381228070175396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.594561403508735</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.620701754385962</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.341228070175404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.841754385964848</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.411228070175397</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.105087719298169</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.187894736842054</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.388947368421029</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98.465614035087697</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98.115614035087717</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97.460818713450251</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96.321228070175394</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>93.796315789473667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>93.572982456140338</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92.802456140350799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92.46912280701747</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>92.985789473684136</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>92.959122807017479</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>93.626315789473665</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.716842105263098</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94.53350877192976</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94.317777777777721</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>93.716315789473654</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>94.266842105263095</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>92.845789473684135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>93.682982456140337</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>90.22421052631573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3A68-455F-953A-20754B042A2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>AMBER</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$AQ$3:$AQ$32</c:f>
@@ -1949,6 +1409,254 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3A8A-4DC7-9802-259C31D1162B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>AMBER (Relevance Score Only)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AU$3:$AU$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>96.491228070175396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.192982456140328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.1929824561403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.017543859649066</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.017543859649066</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.491228070175396</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.017543859649066</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.666666666666629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.666666666666615</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.017543859649052</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96.842105263157876</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97.192982456140314</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96.666666666666629</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96.842105263157876</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96.315789473684191</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95.789473684210478</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96.491228070175424</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95.614035087719259</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95.964912280701725</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95.614035087719259</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94.912280701754355</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>94.561403508771903</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.035087719298204</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94.561403508771875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>95.08771929824556</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>92.631578947368396</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>91.228070175438532</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>89.649122807017477</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>88.999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>87.421052631578902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C45-430A-B73F-649BDC33064B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>AMBER (With Retraining)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AW$3:$AW$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>96.491228070175396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.368421052631504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.491228070175396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.368421052631504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.491228070175396</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.368421052631504</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.122807017543806</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97.368421052631504</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.122807017543806</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>96.491228070175396</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>97.368421052631504</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>97.368421052631504</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>97.368421052631504</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>97.368421052631504</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99.122807017543806</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>97.368421052631504</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>94.432324561403448</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92.570921052631505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4C45-430A-B73F-649BDC33064B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2238,10 +1946,2191 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.5465732580744844E-2"/>
-          <c:y val="0.52133728708785232"/>
-          <c:w val="0.15065655913726134"/>
-          <c:h val="0.35828227891817849"/>
+          <c:x val="8.5465649423951504E-2"/>
+          <c:y val="0.45427753501762252"/>
+          <c:w val="0.7774340660278336"/>
+          <c:h val="0.42752386598074277"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.5587662510198392E-2"/>
+          <c:y val="2.9767319955638732E-2"/>
+          <c:w val="0.89386787526890699"/>
+          <c:h val="0.85376864296348753"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AMBER (R3=1)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$3:$AQ$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>96.491228070175396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.783625730994103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.491228070175396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.578947368420998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.368421052631504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.198830409356688</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.660818713450269</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.076023391812839</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.368421052631504</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.953216374268962</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97.076023391812825</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97.076023391812825</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97.368421052631518</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97.701754385964861</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97.076023391812797</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>97.076023391812825</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>97.953216374268933</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95.906432748537995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>96.783625730994103</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96.783625730994103</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>96.783625730994103</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>97.076023391812797</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>97.368421052631518</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>97.368421052631518</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>97.953216374268962</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>97.953216374268962</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99.122807017543821</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>96.783625730994103</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>95.116959064327432</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>91.900584795321564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-9DDC-4D5B-9D81-B1701CD46B65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>AMBER (R3 = 0.1)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AY$3:$AY$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>96.491228070175396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.085614035087701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.038421052631506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.804035087719299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.876842105263094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.734035087719306</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.1656140350877</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.438421052631497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.195614035087701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.878421052631509</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97.765614035087694</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96.568421052631507</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97.8056140350877</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97.595614035087692</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96.828421052631498</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>98.1656140350877</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>96.368421052631504</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>96.738421052631509</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95.881228070175396</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>95.394035087719303</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96.4984210526315</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>96.181228070175393</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>96.071228070175394</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94.894035087719303</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>95.414035087719299</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>94.734035087719306</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90.468070175438498</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>91.485263157894693</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>91.695263157894701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-9DDC-4D5B-9D81-B1701CD46B65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>AMBER (R3 = 0.5)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BA$3:$BA$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>96.491228070175396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.811228070175389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.751228070175401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.470614035087692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.628421052631509</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.586228070175395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.615614035087702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.705614035087692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.6234210526315</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.167807017543808</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.545614035087695</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98.600614035087702</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98.4156140350877</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98.390614035087694</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96.646228070175397</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>98.450614035087696</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.122807017543806</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>96.701228070175389</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>97.423421052631511</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96.931228070175393</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>95.624035087719307</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96.891228070175401</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>96.561228070175389</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>96.741228070175396</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>98.400614035087699</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>98.515614035087694</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99.122807017543806</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>97.688421052631497</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>92.3734210526315</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92.773421052631505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-9DDC-4D5B-9D81-B1701CD46B65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>AMBER (R3 = 2)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BC$3:$BC$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>96.491228070175396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.598421052631508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.121228070175391</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.131228070175396</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.711228070175395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.051228070175398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.848421052631508</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.655614035087694</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.061228070175389</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.191228070175399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97.965614035087697</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97.295614035087695</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97.198421052631502</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96.4712280701754</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95.581228070175399</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>93.259649122807005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>93.719649122806999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92.232456140350806</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92.182456140350808</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>92.292456140350808</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>92.172456140350803</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>93.849649122806994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.696842105263087</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>93.746842105263099</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>93.659649122806997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>92.35245614035081</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>93.479649122807004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>95.424035087719304</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>92.132456140350811</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>90.280877192982402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-9DDC-4D5B-9D81-B1701CD46B65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>AMBER (R3 = 10)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BE$3:$BE$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>96.491228070175396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.242982456140325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.162982456140298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.077543859649069</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.667543859649072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.391228070175401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.617543859649061</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.596666666666636</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.026666666666614</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.467543859649055</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96.652105263157878</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.572982456140309</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96.106666666666626</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96.512105263157878</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96.305789473684186</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95.729473684210475</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95.971228070175428</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94.714035087719253</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95.464912280701725</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95.544035087719266</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94.40228070175435</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>94.461403508771909</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93.235087719298207</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>93.561403508771875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94.367719298245561</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>92.45157894736839</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>90.638070175438529</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>89.309122807017474</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>88.209999999999951</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>86.911052631578897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-9DDC-4D5B-9D81-B1701CD46B65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>AMBER (R3 = infinity)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AU$3:$AU$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>96.491228070175396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.192982456140328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.1929824561403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.017543859649066</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.017543859649066</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.491228070175396</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.017543859649066</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.666666666666629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.666666666666615</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.017543859649052</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96.842105263157876</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97.192982456140314</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96.666666666666629</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96.842105263157876</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96.315789473684191</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95.789473684210478</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96.491228070175424</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95.614035087719259</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95.964912280701725</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95.614035087719259</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94.912280701754355</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>94.561403508771903</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.035087719298204</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94.561403508771875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>95.08771929824556</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>92.631578947368396</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>91.228070175438532</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>89.649122807017477</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>88.999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>87.421052631578902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-9DDC-4D5B-9D81-B1701CD46B65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>AMBER (R3 = 1) with retraining</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AW$3:$AW$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>96.491228070175396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.368421052631504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.491228070175396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.368421052631504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.491228070175396</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.368421052631504</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.122807017543806</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97.368421052631504</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.122807017543806</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>96.491228070175396</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>97.368421052631504</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>97.368421052631504</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>97.368421052631504</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>97.368421052631504</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>98.245614035087698</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99.122807017543806</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>97.368421052631504</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>94.432324561403448</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92.570921052631505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-9DDC-4D5B-9D81-B1701CD46B65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>AMBER (R3 = 0.5) with retraining</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BG$3:$BG$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>96.491228070175396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.089824561403447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.621228070175391</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.358114035087695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.4984210526315</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.538728070175395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.4306140350877</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.475614035087688</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.495921052631502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.145307017543814</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.395614035087704</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98.423114035087707</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98.330614035087706</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98.318114035087689</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97.007324561403451</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>98.34811403508769</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.122807017543806</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>96.596228070175385</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>97.395921052631508</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>97.149824561403449</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>96.496228070175405</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>97.129824561403453</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>97.403421052631543</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>97.493421052631547</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>98.323114035087698</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>98.380614035087689</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99.122807017543806</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>97.528421052631501</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>96.491228070175396</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92.368421052631504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-9DDC-4D5B-9D81-B1701CD46B65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="440969504"/>
+        <c:axId val="440970488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="440969504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Features (Decrements of 1)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.29467418472839924"/>
+              <c:y val="0.92994686084273881"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440970488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="0"/>
+        <c:tickLblSkip val="5"/>
+        <c:tickMarkSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="440970488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="70"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.35774900091999529"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440969504"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0496337900751197E-2"/>
+          <c:y val="0.31145321519472263"/>
+          <c:w val="0.76543880627851046"/>
+          <c:h val="0.57336599268066879"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2318,6 +4207,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2873,6 +4802,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2906,6 +5351,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>630716</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C3959B-7655-4849-BDCA-D1E477373A36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3211,18 +5694,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF47E65-44A6-4439-BCFE-468FFAD614D2}">
-  <dimension ref="J1:AS63"/>
+  <dimension ref="J1:BH65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BI19" sqref="BI19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="6" width="8.83984375" customWidth="1"/>
+    <col min="33" max="35" width="8.83984375" style="1"/>
+    <col min="47" max="47" width="8.83984375" style="1"/>
+    <col min="49" max="49" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="11:59" x14ac:dyDescent="0.55000000000000004">
       <c r="L1" t="s">
         <v>0</v>
       </c>
@@ -3232,14 +5718,35 @@
       <c r="Z1" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="AU1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="11:59" x14ac:dyDescent="0.55000000000000004">
       <c r="L2" t="s">
         <v>4</v>
       </c>
@@ -3294,13 +5801,13 @@
       <c r="AE2" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AH2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AJ2" t="s">
@@ -3330,8 +5837,29 @@
       <c r="AS2" t="s">
         <v>9</v>
       </c>
+      <c r="AU2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="11:59" x14ac:dyDescent="0.55000000000000004">
       <c r="K3">
         <v>30</v>
       </c>
@@ -3440,8 +5968,30 @@
         <f>AQ3-MIN(AN3:AP3)</f>
         <v>0</v>
       </c>
+      <c r="AU3" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="BA3" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="BC3" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="BE3" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="BG3" s="1">
+        <v>96.491228070175396</v>
+      </c>
     </row>
-    <row r="4" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="11:59" x14ac:dyDescent="0.55000000000000004">
       <c r="K4">
         <f>K3-1</f>
         <v>29</v>
@@ -3551,8 +6101,30 @@
         <f t="shared" ref="AS4:AS32" si="14">AQ4-MIN(AN4:AP4)</f>
         <v>0.29239766081870755</v>
       </c>
+      <c r="AU4" s="1">
+        <v>97.192982456140328</v>
+      </c>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>98.085614035087701</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>96.811228070175389</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>96.598421052631508</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>96.242982456140325</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>97.089824561403447</v>
+      </c>
     </row>
-    <row r="5" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="11:59" x14ac:dyDescent="0.55000000000000004">
       <c r="K5">
         <f t="shared" ref="K5:K32" si="15">K4-1</f>
         <v>28</v>
@@ -3662,8 +6234,30 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AU5" s="1">
+        <v>97.1929824561403</v>
+      </c>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>97.038421052631506</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>96.751228070175401</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>96.121228070175391</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>97.162982456140298</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>96.621228070175391</v>
+      </c>
     </row>
-    <row r="6" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="11:59" x14ac:dyDescent="0.55000000000000004">
       <c r="K6">
         <f t="shared" si="15"/>
         <v>27</v>
@@ -3773,8 +6367,30 @@
         <f t="shared" si="14"/>
         <v>0.45614035087719174</v>
       </c>
+      <c r="AU6" s="1">
+        <v>97.017543859649066</v>
+      </c>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>94.804035087719299</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>98.470614035087692</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>96.131228070175396</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>96.077543859649069</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>98.358114035087695</v>
+      </c>
     </row>
-    <row r="7" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="11:59" x14ac:dyDescent="0.55000000000000004">
       <c r="K7">
         <f t="shared" si="15"/>
         <v>26</v>
@@ -3884,8 +6500,30 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AU7" s="1">
+        <v>97.017543859649066</v>
+      </c>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>93.876842105263094</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>97.628421052631509</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>95.711228070175395</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>96.667543859649072</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>97.4984210526315</v>
+      </c>
     </row>
-    <row r="8" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="11:59" x14ac:dyDescent="0.55000000000000004">
       <c r="K8">
         <f t="shared" si="15"/>
         <v>25</v>
@@ -3995,8 +6633,30 @@
         <f t="shared" si="14"/>
         <v>0.58479532163738668</v>
       </c>
+      <c r="AU8" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>94.734035087719306</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>96.586228070175395</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>96.051228070175398</v>
+      </c>
+      <c r="BE8" s="1">
+        <v>96.391228070175401</v>
+      </c>
+      <c r="BG8" s="1">
+        <v>96.538728070175395</v>
+      </c>
     </row>
-    <row r="9" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="11:59" x14ac:dyDescent="0.55000000000000004">
       <c r="K9">
         <f t="shared" si="15"/>
         <v>24</v>
@@ -4106,8 +6766,30 @@
         <f t="shared" si="14"/>
         <v>1.1695906432748728</v>
       </c>
+      <c r="AU9" s="1">
+        <v>97.017543859649066</v>
+      </c>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>98.1656140350877</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>98.615614035087702</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>96.848421052631508</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>96.617543859649061</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>98.4306140350877</v>
+      </c>
     </row>
-    <row r="10" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="11:59" x14ac:dyDescent="0.55000000000000004">
       <c r="K10">
         <f t="shared" si="15"/>
         <v>23</v>
@@ -4217,8 +6899,30 @@
         <f t="shared" si="14"/>
         <v>1.4619883040935377</v>
       </c>
+      <c r="AU10" s="1">
+        <v>96.666666666666629</v>
+      </c>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="AY10" s="1">
+        <v>96.438421052631497</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>98.705614035087692</v>
+      </c>
+      <c r="BC10" s="1">
+        <v>97.655614035087694</v>
+      </c>
+      <c r="BE10" s="1">
+        <v>96.596666666666636</v>
+      </c>
+      <c r="BG10" s="1">
+        <v>98.475614035087688</v>
+      </c>
     </row>
-    <row r="11" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="11:59" x14ac:dyDescent="0.55000000000000004">
       <c r="K11">
         <f t="shared" si="15"/>
         <v>22</v>
@@ -4328,8 +7032,30 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AU11" s="1">
+        <v>96.666666666666615</v>
+      </c>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>98.195614035087701</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>97.6234210526315</v>
+      </c>
+      <c r="BC11" s="1">
+        <v>96.061228070175389</v>
+      </c>
+      <c r="BE11" s="1">
+        <v>96.026666666666614</v>
+      </c>
+      <c r="BG11" s="1">
+        <v>97.495921052631502</v>
+      </c>
     </row>
-    <row r="12" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="11:59" x14ac:dyDescent="0.55000000000000004">
       <c r="K12">
         <f t="shared" si="15"/>
         <v>21</v>
@@ -4439,8 +7165,30 @@
         <f t="shared" si="14"/>
         <v>1.4619883040935662</v>
       </c>
+      <c r="AU12" s="1">
+        <v>97.017543859649052</v>
+      </c>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1">
+        <v>99.122807017543806</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>96.878421052631509</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>99.167807017543808</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>96.191228070175399</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>96.467543859649055</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>99.145307017543814</v>
+      </c>
     </row>
-    <row r="13" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="11:59" x14ac:dyDescent="0.55000000000000004">
       <c r="K13">
         <f t="shared" si="15"/>
         <v>20</v>
@@ -4550,8 +7298,30 @@
         <f t="shared" si="14"/>
         <v>0.58479532163742931</v>
       </c>
+      <c r="AU13" s="1">
+        <v>96.842105263157876</v>
+      </c>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>97.765614035087694</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>98.545614035087695</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>97.965614035087697</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>96.652105263157878</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>98.395614035087704</v>
+      </c>
     </row>
-    <row r="14" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="11:59" x14ac:dyDescent="0.55000000000000004">
       <c r="K14">
         <f t="shared" si="15"/>
         <v>19</v>
@@ -4661,8 +7431,30 @@
         <f t="shared" si="14"/>
         <v>0.58479532163742931</v>
       </c>
+      <c r="AU14" s="1">
+        <v>97.192982456140314</v>
+      </c>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>98.600614035087702</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>97.295614035087695</v>
+      </c>
+      <c r="BE14" s="1">
+        <v>96.572982456140309</v>
+      </c>
+      <c r="BG14" s="1">
+        <v>98.423114035087707</v>
+      </c>
     </row>
-    <row r="15" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="11:59" x14ac:dyDescent="0.55000000000000004">
       <c r="K15">
         <f t="shared" si="15"/>
         <v>18</v>
@@ -4772,8 +7564,30 @@
         <f t="shared" si="14"/>
         <v>0.87719298245612265</v>
       </c>
+      <c r="AU15" s="1">
+        <v>96.666666666666629</v>
+      </c>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="AY15" s="1">
+        <v>96.568421052631507</v>
+      </c>
+      <c r="BA15" s="1">
+        <v>98.4156140350877</v>
+      </c>
+      <c r="BC15" s="1">
+        <v>97.198421052631502</v>
+      </c>
+      <c r="BE15" s="1">
+        <v>96.106666666666626</v>
+      </c>
+      <c r="BG15" s="1">
+        <v>98.330614035087706</v>
+      </c>
     </row>
-    <row r="16" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="11:59" x14ac:dyDescent="0.55000000000000004">
       <c r="K16">
         <f t="shared" si="15"/>
         <v>17</v>
@@ -4883,8 +7697,30 @@
         <f t="shared" si="14"/>
         <v>0.33333333333335702</v>
       </c>
+      <c r="AU16" s="1">
+        <v>96.842105263157876</v>
+      </c>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="AY16" s="1">
+        <v>97.8056140350877</v>
+      </c>
+      <c r="BA16" s="1">
+        <v>98.390614035087694</v>
+      </c>
+      <c r="BC16" s="1">
+        <v>96.4712280701754</v>
+      </c>
+      <c r="BE16" s="1">
+        <v>96.512105263157878</v>
+      </c>
+      <c r="BG16" s="1">
+        <v>98.318114035087689</v>
+      </c>
     </row>
-    <row r="17" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="11:60" x14ac:dyDescent="0.55000000000000004">
       <c r="K17">
         <f t="shared" si="15"/>
         <v>16</v>
@@ -4994,8 +7830,30 @@
         <f t="shared" si="14"/>
         <v>0.58479532163740089</v>
       </c>
+      <c r="AU17" s="1">
+        <v>96.315789473684191</v>
+      </c>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="AY17" s="1">
+        <v>97.595614035087692</v>
+      </c>
+      <c r="BA17" s="1">
+        <v>96.646228070175397</v>
+      </c>
+      <c r="BC17" s="1">
+        <v>95.581228070175399</v>
+      </c>
+      <c r="BE17" s="1">
+        <v>96.305789473684186</v>
+      </c>
+      <c r="BG17" s="1">
+        <v>97.007324561403451</v>
+      </c>
     </row>
-    <row r="18" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="11:60" x14ac:dyDescent="0.55000000000000004">
       <c r="K18">
         <f t="shared" si="15"/>
         <v>15</v>
@@ -5105,8 +7963,30 @@
         <f t="shared" si="14"/>
         <v>0.58479532163742931</v>
       </c>
+      <c r="AU18" s="1">
+        <v>95.789473684210478</v>
+      </c>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="AY18" s="1">
+        <v>96.828421052631498</v>
+      </c>
+      <c r="BA18" s="1">
+        <v>98.450614035087696</v>
+      </c>
+      <c r="BC18" s="1">
+        <v>93.259649122807005</v>
+      </c>
+      <c r="BE18" s="1">
+        <v>95.729473684210475</v>
+      </c>
+      <c r="BG18" s="1">
+        <v>98.34811403508769</v>
+      </c>
     </row>
-    <row r="19" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="11:60" x14ac:dyDescent="0.55000000000000004">
       <c r="K19">
         <f t="shared" si="15"/>
         <v>14</v>
@@ -5216,8 +8096,30 @@
         <f t="shared" si="14"/>
         <v>0.58479532163742931</v>
       </c>
+      <c r="AU19" s="1">
+        <v>96.491228070175424</v>
+      </c>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1">
+        <v>99.122807017543806</v>
+      </c>
+      <c r="AY19" s="1">
+        <v>98.1656140350877</v>
+      </c>
+      <c r="BA19" s="1">
+        <v>99.122807017543806</v>
+      </c>
+      <c r="BC19" s="1">
+        <v>93.719649122806999</v>
+      </c>
+      <c r="BE19" s="1">
+        <v>95.971228070175428</v>
+      </c>
+      <c r="BG19" s="1">
+        <v>99.122807017543806</v>
+      </c>
     </row>
-    <row r="20" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="11:60" x14ac:dyDescent="0.55000000000000004">
       <c r="K20">
         <f t="shared" si="15"/>
         <v>13</v>
@@ -5327,8 +8229,30 @@
         <f t="shared" si="14"/>
         <v>0.29239766081869334</v>
       </c>
+      <c r="AU20" s="1">
+        <v>95.614035087719259</v>
+      </c>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="AY20" s="1">
+        <v>96.368421052631504</v>
+      </c>
+      <c r="BA20" s="1">
+        <v>96.701228070175389</v>
+      </c>
+      <c r="BC20" s="1">
+        <v>92.232456140350806</v>
+      </c>
+      <c r="BE20" s="1">
+        <v>94.714035087719253</v>
+      </c>
+      <c r="BG20" s="1">
+        <v>96.596228070175385</v>
+      </c>
     </row>
-    <row r="21" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="11:60" x14ac:dyDescent="0.55000000000000004">
       <c r="K21">
         <f t="shared" si="15"/>
         <v>12</v>
@@ -5438,8 +8362,30 @@
         <f t="shared" si="14"/>
         <v>1.1695906432748018</v>
       </c>
+      <c r="AU21" s="1">
+        <v>95.964912280701725</v>
+      </c>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="AY21" s="1">
+        <v>96.738421052631509</v>
+      </c>
+      <c r="BA21" s="1">
+        <v>97.423421052631511</v>
+      </c>
+      <c r="BC21" s="1">
+        <v>92.182456140350808</v>
+      </c>
+      <c r="BE21" s="1">
+        <v>95.464912280701725</v>
+      </c>
+      <c r="BG21" s="1">
+        <v>97.395921052631508</v>
+      </c>
     </row>
-    <row r="22" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="11:60" x14ac:dyDescent="0.55000000000000004">
       <c r="K22">
         <f t="shared" si="15"/>
         <v>11</v>
@@ -5549,8 +8495,30 @@
         <f t="shared" si="14"/>
         <v>0.29239766081870755</v>
       </c>
+      <c r="AU22" s="1">
+        <v>95.614035087719259</v>
+      </c>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="AY22" s="1">
+        <v>95.881228070175396</v>
+      </c>
+      <c r="BA22" s="1">
+        <v>96.931228070175393</v>
+      </c>
+      <c r="BC22" s="1">
+        <v>92.292456140350808</v>
+      </c>
+      <c r="BE22" s="1">
+        <v>95.544035087719266</v>
+      </c>
+      <c r="BG22" s="1">
+        <v>97.149824561403449</v>
+      </c>
     </row>
-    <row r="23" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="11:60" x14ac:dyDescent="0.55000000000000004">
       <c r="K23">
         <f t="shared" si="15"/>
         <v>10</v>
@@ -5660,8 +8628,30 @@
         <f t="shared" si="14"/>
         <v>1.1695906432748018</v>
       </c>
+      <c r="AU23" s="1">
+        <v>94.912280701754355</v>
+      </c>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="AY23" s="1">
+        <v>95.394035087719303</v>
+      </c>
+      <c r="BA23" s="1">
+        <v>95.624035087719307</v>
+      </c>
+      <c r="BC23" s="1">
+        <v>92.172456140350803</v>
+      </c>
+      <c r="BE23" s="1">
+        <v>94.40228070175435</v>
+      </c>
+      <c r="BG23" s="1">
+        <v>96.496228070175405</v>
+      </c>
     </row>
-    <row r="24" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="11:60" x14ac:dyDescent="0.55000000000000004">
       <c r="K24">
         <f t="shared" si="15"/>
         <v>9</v>
@@ -5771,8 +8761,30 @@
         <f t="shared" si="14"/>
         <v>0.58479532163740089</v>
       </c>
+      <c r="AU24" s="1">
+        <v>94.561403508771903</v>
+      </c>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="AY24" s="1">
+        <v>96.4984210526315</v>
+      </c>
+      <c r="BA24" s="1">
+        <v>96.891228070175401</v>
+      </c>
+      <c r="BC24" s="1">
+        <v>93.849649122806994</v>
+      </c>
+      <c r="BE24" s="1">
+        <v>94.461403508771909</v>
+      </c>
+      <c r="BG24" s="1">
+        <v>97.129824561403453</v>
+      </c>
     </row>
-    <row r="25" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="11:60" x14ac:dyDescent="0.55000000000000004">
       <c r="K25">
         <f t="shared" si="15"/>
         <v>8</v>
@@ -5882,8 +8894,30 @@
         <f t="shared" si="14"/>
         <v>0.87719298245612265</v>
       </c>
+      <c r="AU25" s="1">
+        <v>94.035087719298204</v>
+      </c>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="AY25" s="1">
+        <v>96.181228070175393</v>
+      </c>
+      <c r="BA25" s="1">
+        <v>96.561228070175389</v>
+      </c>
+      <c r="BC25" s="1">
+        <v>94.696842105263087</v>
+      </c>
+      <c r="BE25" s="1">
+        <v>93.235087719298207</v>
+      </c>
+      <c r="BG25" s="1">
+        <v>97.403421052631543</v>
+      </c>
     </row>
-    <row r="26" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="11:60" x14ac:dyDescent="0.55000000000000004">
       <c r="K26">
         <f t="shared" si="15"/>
         <v>7</v>
@@ -5993,8 +9027,30 @@
         <f t="shared" si="14"/>
         <v>0.87719298245612265</v>
       </c>
+      <c r="AU26" s="1">
+        <v>94.561403508771875</v>
+      </c>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="AY26" s="1">
+        <v>96.071228070175394</v>
+      </c>
+      <c r="BA26" s="1">
+        <v>96.741228070175396</v>
+      </c>
+      <c r="BC26" s="1">
+        <v>93.746842105263099</v>
+      </c>
+      <c r="BE26" s="1">
+        <v>93.561403508771875</v>
+      </c>
+      <c r="BG26" s="1">
+        <v>97.493421052631547</v>
+      </c>
     </row>
-    <row r="27" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="11:60" x14ac:dyDescent="0.55000000000000004">
       <c r="K27">
         <f t="shared" si="15"/>
         <v>6</v>
@@ -6104,8 +9160,30 @@
         <f t="shared" si="14"/>
         <v>0.58479532163745773</v>
       </c>
+      <c r="AU27" s="1">
+        <v>95.08771929824556</v>
+      </c>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="AY27" s="1">
+        <v>94.894035087719303</v>
+      </c>
+      <c r="BA27" s="1">
+        <v>98.400614035087699</v>
+      </c>
+      <c r="BC27" s="1">
+        <v>93.659649122806997</v>
+      </c>
+      <c r="BE27" s="1">
+        <v>94.367719298245561</v>
+      </c>
+      <c r="BG27" s="1">
+        <v>98.323114035087698</v>
+      </c>
     </row>
-    <row r="28" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="11:60" x14ac:dyDescent="0.55000000000000004">
       <c r="K28">
         <f>K27-1</f>
         <v>5</v>
@@ -6215,8 +9293,31 @@
         <f t="shared" si="14"/>
         <v>0.58479532163745773</v>
       </c>
+      <c r="AU28" s="1">
+        <v>92.631578947368396</v>
+      </c>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="AY28" s="1">
+        <v>95.414035087719299</v>
+      </c>
+      <c r="BA28" s="1">
+        <v>98.515614035087694</v>
+      </c>
+      <c r="BC28" s="1">
+        <v>92.35245614035081</v>
+      </c>
+      <c r="BE28" s="1">
+        <v>92.45157894736839</v>
+      </c>
+      <c r="BG28" s="1">
+        <v>98.380614035087689</v>
+      </c>
+      <c r="BH28" s="1"/>
     </row>
-    <row r="29" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="11:60" x14ac:dyDescent="0.55000000000000004">
       <c r="K29">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -6326,8 +9427,31 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AU29" s="1">
+        <v>91.228070175438532</v>
+      </c>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1">
+        <v>99.122807017543806</v>
+      </c>
+      <c r="AY29" s="1">
+        <v>94.734035087719306</v>
+      </c>
+      <c r="BA29" s="1">
+        <v>99.122807017543806</v>
+      </c>
+      <c r="BC29" s="1">
+        <v>93.479649122807004</v>
+      </c>
+      <c r="BE29" s="1">
+        <v>90.638070175438529</v>
+      </c>
+      <c r="BG29" s="1">
+        <v>99.122807017543806</v>
+      </c>
+      <c r="BH29" s="1"/>
     </row>
-    <row r="30" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="11:60" x14ac:dyDescent="0.55000000000000004">
       <c r="K30">
         <f t="shared" si="15"/>
         <v>3</v>
@@ -6437,8 +9561,31 @@
         <f t="shared" si="14"/>
         <v>0.29239766081870755</v>
       </c>
+      <c r="AU30" s="1">
+        <v>89.649122807017477</v>
+      </c>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="AY30" s="1">
+        <v>90.468070175438498</v>
+      </c>
+      <c r="BA30" s="1">
+        <v>97.688421052631497</v>
+      </c>
+      <c r="BC30" s="1">
+        <v>95.424035087719304</v>
+      </c>
+      <c r="BE30" s="1">
+        <v>89.309122807017474</v>
+      </c>
+      <c r="BG30" s="1">
+        <v>97.528421052631501</v>
+      </c>
+      <c r="BH30" s="1"/>
     </row>
-    <row r="31" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="11:60" x14ac:dyDescent="0.55000000000000004">
       <c r="K31">
         <f>K30-1</f>
         <v>2</v>
@@ -6548,8 +9695,31 @@
         <f t="shared" si="14"/>
         <v>2.7485380116959277</v>
       </c>
+      <c r="AU31" s="1">
+        <v>88.999999999999957</v>
+      </c>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1">
+        <v>94.432324561403448</v>
+      </c>
+      <c r="AY31" s="1">
+        <v>91.485263157894693</v>
+      </c>
+      <c r="BA31" s="1">
+        <v>92.3734210526315</v>
+      </c>
+      <c r="BC31" s="1">
+        <v>92.132456140350811</v>
+      </c>
+      <c r="BE31" s="1">
+        <v>88.209999999999951</v>
+      </c>
+      <c r="BG31" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="BH31" s="1"/>
     </row>
-    <row r="32" spans="11:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="11:60" x14ac:dyDescent="0.55000000000000004">
       <c r="K32">
         <f t="shared" si="15"/>
         <v>1</v>
@@ -6659,132 +9829,2836 @@
         <f t="shared" si="14"/>
         <v>0.67251461988306005</v>
       </c>
+      <c r="AU32" s="1">
+        <v>87.421052631578902</v>
+      </c>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1">
+        <v>92.570921052631505</v>
+      </c>
+      <c r="AY32" s="1">
+        <v>91.695263157894701</v>
+      </c>
+      <c r="BA32" s="1">
+        <v>92.773421052631505</v>
+      </c>
+      <c r="BC32" s="1">
+        <v>90.280877192982402</v>
+      </c>
+      <c r="BE32" s="1">
+        <v>86.911052631578897</v>
+      </c>
+      <c r="BG32" s="1">
+        <v>92.368421052631504</v>
+      </c>
+      <c r="BH32" s="1"/>
     </row>
-    <row r="33" spans="10:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="10:38" x14ac:dyDescent="0.55000000000000004">
       <c r="J33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="10:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="10:38" x14ac:dyDescent="0.55000000000000004">
       <c r="J34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="Q34" s="1"/>
+      <c r="L34" t="s">
+        <v>13</v>
+      </c>
       <c r="R34" s="1"/>
+      <c r="S34" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG34" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="35" spans="10:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="10:38" x14ac:dyDescent="0.55000000000000004">
       <c r="J35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="Q35" s="1"/>
+      <c r="L35" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" t="s">
+        <v>7</v>
+      </c>
+      <c r="P35" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>9</v>
+      </c>
+      <c r="S35" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" t="s">
+        <v>6</v>
+      </c>
+      <c r="V35" t="s">
+        <v>7</v>
+      </c>
+      <c r="W35" t="s">
+        <v>8</v>
+      </c>
+      <c r="X35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="36" spans="10:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="J36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="Q36" s="1"/>
+    <row r="36" spans="10:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="K36">
+        <v>30</v>
+      </c>
+      <c r="L36" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="M36" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="N36" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="O36" s="1">
+        <f>AVERAGE(L36:N36)</f>
+        <v>96.491228070175396</v>
+      </c>
+      <c r="P36" s="1">
+        <f>MAX(L36:N36)-O36</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <f>O36-MIN(L36:N36)</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="T36" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="U36" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="V36" s="1">
+        <f>AVERAGE(S36:U36)</f>
+        <v>96.491228070175396</v>
+      </c>
+      <c r="W36" s="1">
+        <f>MAX(S36:U36)-V36</f>
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
+        <f>V36-MIN(S36:U36)</f>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="AC36" s="1">
+        <f>AVERAGE(Z36:AB36)</f>
+        <v>96.491228070175396</v>
+      </c>
+      <c r="AD36" s="1">
+        <f>MAX(Z36:AB36)-AC36</f>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="1">
+        <f>AC36-MIN(Z36:AB36)</f>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="AI36" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="AJ36" s="1">
+        <f>AVERAGE(AG36:AI36)</f>
+        <v>96.491228070175396</v>
+      </c>
+      <c r="AK36" s="1">
+        <f>MAX(AG36:AI36)-AJ36</f>
+        <v>0</v>
+      </c>
+      <c r="AL36" s="1">
+        <f>AJ36-MIN(AG36:AI36)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="10:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="10:38" x14ac:dyDescent="0.55000000000000004">
       <c r="J37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="Q37" s="1"/>
+      <c r="K37">
+        <f>K36-1</f>
+        <v>29</v>
+      </c>
+      <c r="L37" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="M37" s="1">
+        <v>97.40842105263151</v>
+      </c>
+      <c r="N37" s="1">
+        <v>96.728421052631504</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" ref="O37:O65" si="16">AVERAGE(L37:N37)</f>
+        <v>97.168421052631516</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" ref="P37:P65" si="17">MAX(L37:N37)-O37</f>
+        <v>0.23999999999999488</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" ref="Q37:Q65" si="18">O37-MIN(L37:N37)</f>
+        <v>0.44000000000001194</v>
+      </c>
+      <c r="S37" s="1">
+        <v>95.614035087719301</v>
+      </c>
+      <c r="T37" s="1">
+        <v>95.0840350877193</v>
+      </c>
+      <c r="U37" s="1">
+        <v>95.674035087719304</v>
+      </c>
+      <c r="V37" s="1">
+        <f t="shared" ref="V37:V65" si="19">AVERAGE(S37:U37)</f>
+        <v>95.457368421052635</v>
+      </c>
+      <c r="W37" s="1">
+        <f t="shared" ref="W37:W65" si="20">MAX(S37:U37)-V37</f>
+        <v>0.21666666666666856</v>
+      </c>
+      <c r="X37" s="1">
+        <f t="shared" ref="X37:X65" si="21">V37-MIN(S37:U37)</f>
+        <v>0.37333333333333485</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>99.122807017543806</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>98.802807017543813</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>99.382807017543811</v>
+      </c>
+      <c r="AC37" s="1">
+        <f t="shared" ref="AC37:AC65" si="22">AVERAGE(Z37:AB37)</f>
+        <v>99.10280701754381</v>
+      </c>
+      <c r="AD37" s="1">
+        <f t="shared" ref="AD37:AD65" si="23">MAX(Z37:AB37)-AC37</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="AE37" s="1">
+        <f t="shared" ref="AE37:AE65" si="24">AC37-MIN(Z37:AB37)</f>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>96.428421052631506</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>97.118421052631504</v>
+      </c>
+      <c r="AJ37" s="1">
+        <f t="shared" ref="AJ37:AJ65" si="25">AVERAGE(AG37:AI37)</f>
+        <v>96.971754385964843</v>
+      </c>
+      <c r="AK37" s="1">
+        <f t="shared" ref="AK37:AK65" si="26">MAX(AG37:AI37)-AJ37</f>
+        <v>0.39666666666666117</v>
+      </c>
+      <c r="AL37" s="1">
+        <f t="shared" ref="AL37:AL65" si="27">AJ37-MIN(AG37:AI37)</f>
+        <v>0.54333333333333655</v>
+      </c>
     </row>
-    <row r="38" spans="10:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="10:38" x14ac:dyDescent="0.55000000000000004">
       <c r="J38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="Q38" s="1"/>
+      <c r="K38">
+        <f t="shared" ref="K38:K65" si="28">K37-1</f>
+        <v>28</v>
+      </c>
+      <c r="L38" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="M38" s="1">
+        <v>96.84122807017539</v>
+      </c>
+      <c r="N38" s="1">
+        <v>96.381228070175396</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="16"/>
+        <v>96.571228070175394</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="17"/>
+        <v>0.26999999999999602</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="18"/>
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="S38" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="T38" s="1">
+        <v>95.811228070175389</v>
+      </c>
+      <c r="U38" s="1">
+        <v>96.571228070175394</v>
+      </c>
+      <c r="V38" s="1">
+        <f t="shared" si="19"/>
+        <v>96.291228070175393</v>
+      </c>
+      <c r="W38" s="1">
+        <f t="shared" si="20"/>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="X38" s="1">
+        <f t="shared" si="21"/>
+        <v>0.48000000000000398</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>95.561228070175389</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>96.541228070175393</v>
+      </c>
+      <c r="AC38" s="1">
+        <f t="shared" si="22"/>
+        <v>96.197894736842059</v>
+      </c>
+      <c r="AD38" s="1">
+        <f t="shared" si="23"/>
+        <v>0.34333333333333371</v>
+      </c>
+      <c r="AE38" s="1">
+        <f t="shared" si="24"/>
+        <v>0.63666666666667027</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>96.291228070175393</v>
+      </c>
+      <c r="AI38" s="1">
+        <v>96.361228070175386</v>
+      </c>
+      <c r="AJ38" s="1">
+        <f t="shared" si="25"/>
+        <v>96.381228070175396</v>
+      </c>
+      <c r="AK38" s="1">
+        <f t="shared" si="26"/>
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="AL38" s="1">
+        <f t="shared" si="27"/>
+        <v>9.0000000000003411E-2</v>
+      </c>
     </row>
-    <row r="39" spans="10:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="10:38" x14ac:dyDescent="0.55000000000000004">
       <c r="J39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="Q39" s="1"/>
+      <c r="K39">
+        <f t="shared" si="28"/>
+        <v>27</v>
+      </c>
+      <c r="L39" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="M39" s="1">
+        <v>97.4712280701754</v>
+      </c>
+      <c r="N39" s="1">
+        <v>97.141228070175401</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="16"/>
+        <v>97.034561403508746</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="17"/>
+        <v>0.43666666666665321</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="18"/>
+        <v>0.54333333333335077</v>
+      </c>
+      <c r="S39" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="T39" s="1">
+        <v>97.885614035087698</v>
+      </c>
+      <c r="U39" s="1">
+        <v>98.835614035087701</v>
+      </c>
+      <c r="V39" s="1">
+        <f t="shared" si="19"/>
+        <v>98.322280701754366</v>
+      </c>
+      <c r="W39" s="1">
+        <f t="shared" si="20"/>
+        <v>0.51333333333333542</v>
+      </c>
+      <c r="X39" s="1">
+        <f t="shared" si="21"/>
+        <v>0.43666666666666742</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>95.791228070175393</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>95.921228070175388</v>
+      </c>
+      <c r="AC39" s="1">
+        <f t="shared" si="22"/>
+        <v>96.067894736842064</v>
+      </c>
+      <c r="AD39" s="1">
+        <f t="shared" si="23"/>
+        <v>0.42333333333333201</v>
+      </c>
+      <c r="AE39" s="1">
+        <f t="shared" si="24"/>
+        <v>0.27666666666667084</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>96.151228070175392</v>
+      </c>
+      <c r="AI39" s="1">
+        <v>97.141228070175387</v>
+      </c>
+      <c r="AJ39" s="1">
+        <f t="shared" si="25"/>
+        <v>96.594561403508735</v>
+      </c>
+      <c r="AK39" s="1">
+        <f t="shared" si="26"/>
+        <v>0.54666666666665265</v>
+      </c>
+      <c r="AL39" s="1">
+        <f t="shared" si="27"/>
+        <v>0.44333333333334224</v>
+      </c>
     </row>
-    <row r="40" spans="10:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="10:38" x14ac:dyDescent="0.55000000000000004">
       <c r="J40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="Q40" s="1"/>
+      <c r="K40">
+        <f t="shared" si="28"/>
+        <v>26</v>
+      </c>
+      <c r="L40" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="M40" s="1">
+        <v>97.271228070175397</v>
+      </c>
+      <c r="N40" s="1">
+        <v>97.101228070175395</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="16"/>
+        <v>96.95456140350872</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="17"/>
+        <v>0.31666666666667709</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="18"/>
+        <v>0.46333333333332405</v>
+      </c>
+      <c r="S40" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="T40" s="1">
+        <v>96.251228070175401</v>
+      </c>
+      <c r="U40" s="1">
+        <v>97.201228070175404</v>
+      </c>
+      <c r="V40" s="1">
+        <f t="shared" si="19"/>
+        <v>96.647894736842048</v>
+      </c>
+      <c r="W40" s="1">
+        <f t="shared" si="20"/>
+        <v>0.55333333333335588</v>
+      </c>
+      <c r="X40" s="1">
+        <f t="shared" si="21"/>
+        <v>0.39666666666664696</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>97.765614035087694</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>98.655614035087694</v>
+      </c>
+      <c r="AC40" s="1">
+        <f t="shared" si="22"/>
+        <v>98.222280701754357</v>
+      </c>
+      <c r="AD40" s="1">
+        <f t="shared" si="23"/>
+        <v>0.43333333333333712</v>
+      </c>
+      <c r="AE40" s="1">
+        <f t="shared" si="24"/>
+        <v>0.45666666666666345</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>95.614035087719301</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>95.434035087719295</v>
+      </c>
+      <c r="AI40" s="1">
+        <v>95.81403508771929</v>
+      </c>
+      <c r="AJ40" s="1">
+        <f t="shared" si="25"/>
+        <v>95.620701754385962</v>
+      </c>
+      <c r="AK40" s="1">
+        <f t="shared" si="26"/>
+        <v>0.19333333333332803</v>
+      </c>
+      <c r="AL40" s="1">
+        <f t="shared" si="27"/>
+        <v>0.18666666666666742</v>
+      </c>
     </row>
-    <row r="41" spans="10:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="10:38" x14ac:dyDescent="0.55000000000000004">
       <c r="J41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="Q41" s="1"/>
+      <c r="K41">
+        <f t="shared" si="28"/>
+        <v>25</v>
+      </c>
+      <c r="L41" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="M41" s="1">
+        <v>96.541228070175393</v>
+      </c>
+      <c r="N41" s="1">
+        <v>96.141228070175387</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="16"/>
+        <v>96.391228070175387</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" si="17"/>
+        <v>0.15000000000000568</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="18"/>
+        <v>0.25</v>
+      </c>
+      <c r="S41" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="T41" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="U41" s="1">
+        <v>96.561228070175389</v>
+      </c>
+      <c r="V41" s="1">
+        <f t="shared" si="19"/>
+        <v>96.514561403508722</v>
+      </c>
+      <c r="W41" s="1">
+        <f t="shared" si="20"/>
+        <v>4.6666666666666856E-2</v>
+      </c>
+      <c r="X41" s="1">
+        <f t="shared" si="21"/>
+        <v>2.3333333333326323E-2</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>96.558421052631502</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>97.268421052631496</v>
+      </c>
+      <c r="AC41" s="1">
+        <f t="shared" si="22"/>
+        <v>97.065087719298162</v>
+      </c>
+      <c r="AD41" s="1">
+        <f t="shared" si="23"/>
+        <v>0.30333333333334167</v>
+      </c>
+      <c r="AE41" s="1">
+        <f t="shared" si="24"/>
+        <v>0.5066666666666606</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>95.921228070175403</v>
+      </c>
+      <c r="AI41" s="1">
+        <v>96.6112280701754</v>
+      </c>
+      <c r="AJ41" s="1">
+        <f t="shared" si="25"/>
+        <v>96.341228070175404</v>
+      </c>
+      <c r="AK41" s="1">
+        <f t="shared" si="26"/>
+        <v>0.26999999999999602</v>
+      </c>
+      <c r="AL41" s="1">
+        <f t="shared" si="27"/>
+        <v>0.42000000000000171</v>
+      </c>
     </row>
-    <row r="42" spans="10:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="10:38" x14ac:dyDescent="0.55000000000000004">
       <c r="J42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="Q42" s="1"/>
+      <c r="K42">
+        <f t="shared" si="28"/>
+        <v>24</v>
+      </c>
+      <c r="L42" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="M42" s="1">
+        <v>97.51842105263151</v>
+      </c>
+      <c r="N42" s="1">
+        <v>97.478421052631504</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="16"/>
+        <v>97.455087719298163</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" si="17"/>
+        <v>6.3333333333346786E-2</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="18"/>
+        <v>8.6666666666658898E-2</v>
+      </c>
+      <c r="S42" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="T42" s="1">
+        <v>95.601228070175395</v>
+      </c>
+      <c r="U42" s="1">
+        <v>96.59122807017539</v>
+      </c>
+      <c r="V42" s="1">
+        <f t="shared" si="19"/>
+        <v>96.22789473684206</v>
+      </c>
+      <c r="W42" s="1">
+        <f t="shared" si="20"/>
+        <v>0.36333333333332973</v>
+      </c>
+      <c r="X42" s="1">
+        <f t="shared" si="21"/>
+        <v>0.62666666666666515</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>97.525614035087699</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>97.6656140350877</v>
+      </c>
+      <c r="AC42" s="1">
+        <f t="shared" si="22"/>
+        <v>97.812280701754375</v>
+      </c>
+      <c r="AD42" s="1">
+        <f t="shared" si="23"/>
+        <v>0.43333333333332291</v>
+      </c>
+      <c r="AE42" s="1">
+        <f t="shared" si="24"/>
+        <v>0.28666666666667595</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="AH42" s="1">
+        <v>96.428421052631506</v>
+      </c>
+      <c r="AI42" s="1">
+        <v>96.728421052631504</v>
+      </c>
+      <c r="AJ42" s="1">
+        <f t="shared" si="25"/>
+        <v>96.841754385964848</v>
+      </c>
+      <c r="AK42" s="1">
+        <f t="shared" si="26"/>
+        <v>0.52666666666665662</v>
+      </c>
+      <c r="AL42" s="1">
+        <f t="shared" si="27"/>
+        <v>0.4133333333333411</v>
+      </c>
     </row>
-    <row r="43" spans="10:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="10:38" x14ac:dyDescent="0.55000000000000004">
       <c r="J43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="Q43" s="1"/>
+      <c r="K43">
+        <f t="shared" si="28"/>
+        <v>23</v>
+      </c>
+      <c r="L43" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="M43" s="1">
+        <v>98.825614035087696</v>
+      </c>
+      <c r="N43" s="1">
+        <v>97.965614035087697</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="16"/>
+        <v>98.345614035087692</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="17"/>
+        <v>0.48000000000000398</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" si="18"/>
+        <v>0.37999999999999545</v>
+      </c>
+      <c r="S43" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="T43" s="1">
+        <v>97.048421052631511</v>
+      </c>
+      <c r="U43" s="1">
+        <v>97.218421052631513</v>
+      </c>
+      <c r="V43" s="1">
+        <f t="shared" si="19"/>
+        <v>97.211754385964852</v>
+      </c>
+      <c r="W43" s="1">
+        <f t="shared" si="20"/>
+        <v>0.15666666666665208</v>
+      </c>
+      <c r="X43" s="1">
+        <f t="shared" si="21"/>
+        <v>0.1633333333333411</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>97.328421052631498</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>97.818421052631493</v>
+      </c>
+      <c r="AC43" s="1">
+        <f t="shared" si="22"/>
+        <v>97.50508771929816</v>
+      </c>
+      <c r="AD43" s="1">
+        <f t="shared" si="23"/>
+        <v>0.31333333333333258</v>
+      </c>
+      <c r="AE43" s="1">
+        <f t="shared" si="24"/>
+        <v>0.17666666666666231</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>96.071228070175394</v>
+      </c>
+      <c r="AI43" s="1">
+        <v>96.671228070175388</v>
+      </c>
+      <c r="AJ43" s="1">
+        <f t="shared" si="25"/>
+        <v>96.411228070175397</v>
+      </c>
+      <c r="AK43" s="1">
+        <f t="shared" si="26"/>
+        <v>0.25999999999999091</v>
+      </c>
+      <c r="AL43" s="1">
+        <f t="shared" si="27"/>
+        <v>0.34000000000000341</v>
+      </c>
     </row>
-    <row r="44" spans="10:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="10:38" x14ac:dyDescent="0.55000000000000004">
       <c r="J44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="Q44" s="1"/>
+      <c r="K44">
+        <f t="shared" si="28"/>
+        <v>22</v>
+      </c>
+      <c r="L44" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="M44" s="1">
+        <v>96.84122807017539</v>
+      </c>
+      <c r="N44" s="1">
+        <v>96.321228070175394</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="16"/>
+        <v>96.551228070175398</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" si="17"/>
+        <v>0.28999999999999204</v>
+      </c>
+      <c r="Q44" s="1">
+        <f t="shared" si="18"/>
+        <v>0.23000000000000398</v>
+      </c>
+      <c r="S44" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="T44" s="1">
+        <v>95.801228070175398</v>
+      </c>
+      <c r="U44" s="1">
+        <v>96.011228070175392</v>
+      </c>
+      <c r="V44" s="1">
+        <f t="shared" si="19"/>
+        <v>96.101228070175395</v>
+      </c>
+      <c r="W44" s="1">
+        <f t="shared" si="20"/>
+        <v>0.39000000000000057</v>
+      </c>
+      <c r="X44" s="1">
+        <f t="shared" si="21"/>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>96.808421052631502</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>97.758421052631505</v>
+      </c>
+      <c r="AC44" s="1">
+        <f t="shared" si="22"/>
+        <v>97.311754385964832</v>
+      </c>
+      <c r="AD44" s="1">
+        <f t="shared" si="23"/>
+        <v>0.44666666666667254</v>
+      </c>
+      <c r="AE44" s="1">
+        <f t="shared" si="24"/>
+        <v>0.5033333333333303</v>
+      </c>
+      <c r="AG44" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="AH44" s="1">
+        <v>96.858421052631499</v>
+      </c>
+      <c r="AI44" s="1">
+        <v>97.088421052631503</v>
+      </c>
+      <c r="AJ44" s="1">
+        <f t="shared" si="25"/>
+        <v>97.105087719298169</v>
+      </c>
+      <c r="AK44" s="1">
+        <f t="shared" si="26"/>
+        <v>0.26333333333333542</v>
+      </c>
+      <c r="AL44" s="1">
+        <f t="shared" si="27"/>
+        <v>0.2466666666666697</v>
+      </c>
     </row>
-    <row r="45" spans="10:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="10:38" x14ac:dyDescent="0.55000000000000004">
       <c r="J45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="Q45" s="1"/>
+      <c r="K45">
+        <f t="shared" si="28"/>
+        <v>21</v>
+      </c>
+      <c r="L45" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="M45" s="1">
+        <v>97.311228070175389</v>
+      </c>
+      <c r="N45" s="1">
+        <v>97.001228070175387</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="16"/>
+        <v>96.934561403508724</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" si="17"/>
+        <v>0.37666666666666515</v>
+      </c>
+      <c r="Q45" s="1">
+        <f t="shared" si="18"/>
+        <v>0.44333333333332803</v>
+      </c>
+      <c r="S45" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="T45" s="1">
+        <v>97.865614035087702</v>
+      </c>
+      <c r="U45" s="1">
+        <v>98.495614035087698</v>
+      </c>
+      <c r="V45" s="1">
+        <f t="shared" si="19"/>
+        <v>98.202280701754376</v>
+      </c>
+      <c r="W45" s="1">
+        <f t="shared" si="20"/>
+        <v>0.29333333333332234</v>
+      </c>
+      <c r="X45" s="1">
+        <f t="shared" si="21"/>
+        <v>0.33666666666667311</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>96.398421052631505</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>96.788421052631506</v>
+      </c>
+      <c r="AC45" s="1">
+        <f t="shared" si="22"/>
+        <v>96.851754385964838</v>
+      </c>
+      <c r="AD45" s="1">
+        <f t="shared" si="23"/>
+        <v>0.51666666666666572</v>
+      </c>
+      <c r="AE45" s="1">
+        <f t="shared" si="24"/>
+        <v>0.45333333333333314</v>
+      </c>
+      <c r="AG45" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="AH45" s="1">
+        <v>95.751228070175401</v>
+      </c>
+      <c r="AI45" s="1">
+        <v>96.321228070175394</v>
+      </c>
+      <c r="AJ45" s="1">
+        <f t="shared" si="25"/>
+        <v>96.187894736842054</v>
+      </c>
+      <c r="AK45" s="1">
+        <f t="shared" si="26"/>
+        <v>0.30333333333334167</v>
+      </c>
+      <c r="AL45" s="1">
+        <f t="shared" si="27"/>
+        <v>0.43666666666665321</v>
+      </c>
     </row>
-    <row r="46" spans="10:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="10:38" x14ac:dyDescent="0.55000000000000004">
       <c r="J46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="Q46" s="1"/>
+      <c r="K46">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="L46" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="M46" s="1">
+        <v>98.255614035087703</v>
+      </c>
+      <c r="N46" s="1">
+        <v>97.715614035087697</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="16"/>
+        <v>98.072280701754366</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" si="17"/>
+        <v>0.18333333333333712</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" si="18"/>
+        <v>0.35666666666666913</v>
+      </c>
+      <c r="S46" s="1">
+        <v>99.122807017543806</v>
+      </c>
+      <c r="T46" s="1">
+        <v>98.742807017543811</v>
+      </c>
+      <c r="U46" s="1">
+        <v>99.71280701754381</v>
+      </c>
+      <c r="V46" s="1">
+        <f t="shared" si="19"/>
+        <v>99.192807017543814</v>
+      </c>
+      <c r="W46" s="1">
+        <f t="shared" si="20"/>
+        <v>0.51999999999999602</v>
+      </c>
+      <c r="X46" s="1">
+        <f t="shared" si="21"/>
+        <v>0.45000000000000284</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>96.948421052631502</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>97.008421052631505</v>
+      </c>
+      <c r="AC46" s="1">
+        <f t="shared" si="22"/>
+        <v>97.108421052631499</v>
+      </c>
+      <c r="AD46" s="1">
+        <f t="shared" si="23"/>
+        <v>0.26000000000000512</v>
+      </c>
+      <c r="AE46" s="1">
+        <f t="shared" si="24"/>
+        <v>0.15999999999999659</v>
+      </c>
+      <c r="AG46" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="AH46" s="1">
+        <v>98.095614035087692</v>
+      </c>
+      <c r="AI46" s="1">
+        <v>98.825614035087696</v>
+      </c>
+      <c r="AJ46" s="1">
+        <f t="shared" si="25"/>
+        <v>98.388947368421029</v>
+      </c>
+      <c r="AK46" s="1">
+        <f t="shared" si="26"/>
+        <v>0.43666666666666742</v>
+      </c>
+      <c r="AL46" s="1">
+        <f t="shared" si="27"/>
+        <v>0.29333333333333655</v>
+      </c>
     </row>
-    <row r="47" spans="10:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="10:38" x14ac:dyDescent="0.55000000000000004">
       <c r="J47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="Q47" s="1"/>
+      <c r="K47">
+        <f t="shared" si="28"/>
+        <v>19</v>
+      </c>
+      <c r="L47" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="M47" s="1">
+        <v>99.1656140350877</v>
+      </c>
+      <c r="N47" s="1">
+        <v>99.115614035087702</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="16"/>
+        <v>98.842280701754362</v>
+      </c>
+      <c r="P47" s="1">
+        <f t="shared" si="17"/>
+        <v>0.32333333333333769</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" si="18"/>
+        <v>0.59666666666666401</v>
+      </c>
+      <c r="S47" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="T47" s="1">
+        <v>97.725614035087702</v>
+      </c>
+      <c r="U47" s="1">
+        <v>98.455614035087706</v>
+      </c>
+      <c r="V47" s="1">
+        <f t="shared" si="19"/>
+        <v>98.142280701754373</v>
+      </c>
+      <c r="W47" s="1">
+        <f t="shared" si="20"/>
+        <v>0.31333333333333258</v>
+      </c>
+      <c r="X47" s="1">
+        <f t="shared" si="21"/>
+        <v>0.4166666666666714</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>95.614035087719301</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>95.604035087719296</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>96.094035087719291</v>
+      </c>
+      <c r="AC47" s="1">
+        <f t="shared" si="22"/>
+        <v>95.770701754385968</v>
+      </c>
+      <c r="AD47" s="1">
+        <f t="shared" si="23"/>
+        <v>0.32333333333332348</v>
+      </c>
+      <c r="AE47" s="1">
+        <f t="shared" si="24"/>
+        <v>0.1666666666666714</v>
+      </c>
+      <c r="AG47" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="AH47" s="1">
+        <v>98.215614035087697</v>
+      </c>
+      <c r="AI47" s="1">
+        <v>98.935614035087696</v>
+      </c>
+      <c r="AJ47" s="1">
+        <f t="shared" si="25"/>
+        <v>98.465614035087697</v>
+      </c>
+      <c r="AK47" s="1">
+        <f t="shared" si="26"/>
+        <v>0.46999999999999886</v>
+      </c>
+      <c r="AL47" s="1">
+        <f t="shared" si="27"/>
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="48" spans="10:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="10:38" x14ac:dyDescent="0.55000000000000004">
       <c r="J48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="Q48" s="1"/>
+      <c r="K48">
+        <f t="shared" si="28"/>
+        <v>18</v>
+      </c>
+      <c r="L48" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="M48" s="1">
+        <v>97.648421052631505</v>
+      </c>
+      <c r="N48" s="1">
+        <v>97.108421052631499</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="16"/>
+        <v>97.375087719298165</v>
+      </c>
+      <c r="P48" s="1">
+        <f t="shared" si="17"/>
+        <v>0.27333333333334053</v>
+      </c>
+      <c r="Q48" s="1">
+        <f t="shared" si="18"/>
+        <v>0.26666666666666572</v>
+      </c>
+      <c r="S48" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="T48" s="1">
+        <v>97.295614035087695</v>
+      </c>
+      <c r="U48" s="1">
+        <v>97.375614035087693</v>
+      </c>
+      <c r="V48" s="1">
+        <f t="shared" si="19"/>
+        <v>97.638947368421029</v>
+      </c>
+      <c r="W48" s="1">
+        <f t="shared" si="20"/>
+        <v>0.60666666666666913</v>
+      </c>
+      <c r="X48" s="1">
+        <f t="shared" si="21"/>
+        <v>0.34333333333333371</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>97.318421052631507</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>97.578421052631512</v>
+      </c>
+      <c r="AC48" s="1">
+        <f t="shared" si="22"/>
+        <v>97.421754385964846</v>
+      </c>
+      <c r="AD48" s="1">
+        <f t="shared" si="23"/>
+        <v>0.15666666666666629</v>
+      </c>
+      <c r="AE48" s="1">
+        <f t="shared" si="24"/>
+        <v>0.10333333333333883</v>
+      </c>
+      <c r="AG48" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="AH48" s="1">
+        <v>97.785614035087704</v>
+      </c>
+      <c r="AI48" s="1">
+        <v>98.315614035087705</v>
+      </c>
+      <c r="AJ48" s="1">
+        <f t="shared" si="25"/>
+        <v>98.115614035087717</v>
+      </c>
+      <c r="AK48" s="1">
+        <f t="shared" si="26"/>
+        <v>0.19999999999998863</v>
+      </c>
+      <c r="AL48" s="1">
+        <f t="shared" si="27"/>
+        <v>0.33000000000001251</v>
+      </c>
     </row>
-    <row r="49" spans="12:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="L49" s="1"/>
-      <c r="Q49" s="1"/>
+    <row r="49" spans="10:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="J49" s="1"/>
+      <c r="K49">
+        <f t="shared" si="28"/>
+        <v>17</v>
+      </c>
+      <c r="L49" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="M49" s="1">
+        <v>97.251228070175401</v>
+      </c>
+      <c r="N49" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="16"/>
+        <v>96.744561403508726</v>
+      </c>
+      <c r="P49" s="1">
+        <f t="shared" si="17"/>
+        <v>0.50666666666667481</v>
+      </c>
+      <c r="Q49" s="1">
+        <f t="shared" si="18"/>
+        <v>0.2533333333333303</v>
+      </c>
+      <c r="S49" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="T49" s="1">
+        <v>97.26842105263151</v>
+      </c>
+      <c r="U49" s="1">
+        <v>97.428421052631506</v>
+      </c>
+      <c r="V49" s="1">
+        <f t="shared" si="19"/>
+        <v>97.355087719298169</v>
+      </c>
+      <c r="W49" s="1">
+        <f t="shared" si="20"/>
+        <v>7.3333333333337691E-2</v>
+      </c>
+      <c r="X49" s="1">
+        <f t="shared" si="21"/>
+        <v>8.6666666666658898E-2</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>95.531228070175402</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>95.741228070175396</v>
+      </c>
+      <c r="AC49" s="1">
+        <f t="shared" si="22"/>
+        <v>95.921228070175403</v>
+      </c>
+      <c r="AD49" s="1">
+        <f t="shared" si="23"/>
+        <v>0.56999999999999318</v>
+      </c>
+      <c r="AE49" s="1">
+        <f t="shared" si="24"/>
+        <v>0.39000000000000057</v>
+      </c>
+      <c r="AG49" s="1">
+        <v>97.785614035087704</v>
+      </c>
+      <c r="AH49" s="1">
+        <v>96.351228070175395</v>
+      </c>
+      <c r="AI49" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="AJ49" s="1">
+        <f>AVERAGE(AG49:AI49)</f>
+        <v>97.460818713450251</v>
+      </c>
+      <c r="AK49" s="1">
+        <f>MAX(AG49:AI49)-AJ49</f>
+        <v>0.78479532163744636</v>
+      </c>
+      <c r="AL49" s="1">
+        <f>AJ49-MIN(AG49:AI49)</f>
+        <v>1.1095906432748563</v>
+      </c>
     </row>
-    <row r="50" spans="12:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q50" s="1"/>
+    <row r="50" spans="10:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="K50">
+        <f t="shared" si="28"/>
+        <v>16</v>
+      </c>
+      <c r="L50" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="M50" s="1">
+        <v>96.761228070175392</v>
+      </c>
+      <c r="N50" s="1">
+        <v>96.741228070175396</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="16"/>
+        <v>96.664561403508728</v>
+      </c>
+      <c r="P50" s="1">
+        <f t="shared" si="17"/>
+        <v>9.6666666666664014E-2</v>
+      </c>
+      <c r="Q50" s="1">
+        <f t="shared" si="18"/>
+        <v>0.17333333333333201</v>
+      </c>
+      <c r="S50" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="T50" s="1">
+        <v>97.4156140350877</v>
+      </c>
+      <c r="U50" s="1">
+        <v>97.985614035087693</v>
+      </c>
+      <c r="V50" s="1">
+        <f t="shared" si="19"/>
+        <v>97.882280701754368</v>
+      </c>
+      <c r="W50" s="1">
+        <f t="shared" si="20"/>
+        <v>0.36333333333332973</v>
+      </c>
+      <c r="X50" s="1">
+        <f t="shared" si="21"/>
+        <v>0.46666666666666856</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>95.614035087719301</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>95.054035087719299</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>95.854035087719296</v>
+      </c>
+      <c r="AC50" s="1">
+        <f t="shared" si="22"/>
+        <v>95.507368421052618</v>
+      </c>
+      <c r="AD50" s="1">
+        <f t="shared" si="23"/>
+        <v>0.34666666666667822</v>
+      </c>
+      <c r="AE50" s="1">
+        <f t="shared" si="24"/>
+        <v>0.45333333333331893</v>
+      </c>
+      <c r="AG50" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="AH50" s="1">
+        <v>96.121228070175391</v>
+      </c>
+      <c r="AI50" s="1">
+        <v>96.351228070175395</v>
+      </c>
+      <c r="AJ50" s="1">
+        <f t="shared" si="25"/>
+        <v>96.321228070175394</v>
+      </c>
+      <c r="AK50" s="1">
+        <f t="shared" si="26"/>
+        <v>0.17000000000000171</v>
+      </c>
+      <c r="AL50" s="1">
+        <f t="shared" si="27"/>
+        <v>0.20000000000000284</v>
+      </c>
     </row>
-    <row r="51" spans="12:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q51" s="1"/>
+    <row r="51" spans="10:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="K51">
+        <f t="shared" si="28"/>
+        <v>15</v>
+      </c>
+      <c r="L51" s="1">
+        <v>93.859649122806999</v>
+      </c>
+      <c r="M51" s="1">
+        <v>94.709649122806994</v>
+      </c>
+      <c r="N51" s="1">
+        <v>94.629649122806995</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="16"/>
+        <v>94.399649122806991</v>
+      </c>
+      <c r="P51" s="1">
+        <f t="shared" si="17"/>
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="Q51" s="1">
+        <f t="shared" si="18"/>
+        <v>0.53999999999999204</v>
+      </c>
+      <c r="S51" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="T51" s="1">
+        <v>97.475614035087702</v>
+      </c>
+      <c r="U51" s="1">
+        <v>98.1656140350877</v>
+      </c>
+      <c r="V51" s="1">
+        <f t="shared" si="19"/>
+        <v>97.962280701754366</v>
+      </c>
+      <c r="W51" s="1">
+        <f t="shared" si="20"/>
+        <v>0.28333333333333144</v>
+      </c>
+      <c r="X51" s="1">
+        <f t="shared" si="21"/>
+        <v>0.48666666666666458</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>95.631228070175396</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>96.541228070175393</v>
+      </c>
+      <c r="AC51" s="1">
+        <f t="shared" si="22"/>
+        <v>96.2212280701754</v>
+      </c>
+      <c r="AD51" s="1">
+        <f t="shared" si="23"/>
+        <v>0.31999999999999318</v>
+      </c>
+      <c r="AE51" s="1">
+        <f t="shared" si="24"/>
+        <v>0.59000000000000341</v>
+      </c>
+      <c r="AG51" s="1">
+        <v>93.859649122806999</v>
+      </c>
+      <c r="AH51" s="1">
+        <v>93.609649122806999</v>
+      </c>
+      <c r="AI51" s="1">
+        <v>93.919649122807002</v>
+      </c>
+      <c r="AJ51" s="1">
+        <f t="shared" si="25"/>
+        <v>93.796315789473667</v>
+      </c>
+      <c r="AK51" s="1">
+        <f t="shared" si="26"/>
+        <v>0.12333333333333485</v>
+      </c>
+      <c r="AL51" s="1">
+        <f t="shared" si="27"/>
+        <v>0.18666666666666742</v>
+      </c>
     </row>
-    <row r="52" spans="12:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q52" s="1"/>
+    <row r="52" spans="10:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="K52">
+        <f t="shared" si="28"/>
+        <v>14</v>
+      </c>
+      <c r="L52" s="1">
+        <v>93.859649122806999</v>
+      </c>
+      <c r="M52" s="1">
+        <v>94.449649122807003</v>
+      </c>
+      <c r="N52" s="1">
+        <v>94.159649122806997</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" si="16"/>
+        <v>94.15631578947368</v>
+      </c>
+      <c r="P52" s="1">
+        <f t="shared" si="17"/>
+        <v>0.29333333333332234</v>
+      </c>
+      <c r="Q52" s="1">
+        <f t="shared" si="18"/>
+        <v>0.29666666666668107</v>
+      </c>
+      <c r="S52" s="1">
+        <v>98.245614035087698</v>
+      </c>
+      <c r="T52" s="1">
+        <v>97.425614035087705</v>
+      </c>
+      <c r="U52" s="1">
+        <v>97.985614035087707</v>
+      </c>
+      <c r="V52" s="1">
+        <f t="shared" si="19"/>
+        <v>97.885614035087698</v>
+      </c>
+      <c r="W52" s="1">
+        <f t="shared" si="20"/>
+        <v>0.35999999999999943</v>
+      </c>
+      <c r="X52" s="1">
+        <f t="shared" si="21"/>
+        <v>0.45999999999999375</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>95.614035087719301</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>95.484035087719306</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>96.244035087719311</v>
+      </c>
+      <c r="AC52" s="1">
+        <f t="shared" si="22"/>
+        <v>95.780701754385973</v>
+      </c>
+      <c r="AD52" s="1">
+        <f t="shared" si="23"/>
+        <v>0.46333333333333826</v>
+      </c>
+      <c r="AE52" s="1">
+        <f t="shared" si="24"/>
+        <v>0.29666666666666686</v>
+      </c>
+      <c r="AG52" s="1">
+        <v>93.859649122806999</v>
+      </c>
+      <c r="AH52" s="1">
+        <v>93.359649122806999</v>
+      </c>
+      <c r="AI52" s="1">
+        <v>93.499649122807</v>
+      </c>
+      <c r="AJ52" s="1">
+        <f t="shared" si="25"/>
+        <v>93.572982456140338</v>
+      </c>
+      <c r="AK52" s="1">
+        <f t="shared" si="26"/>
+        <v>0.28666666666666174</v>
+      </c>
+      <c r="AL52" s="1">
+        <f t="shared" si="27"/>
+        <v>0.21333333333333826</v>
+      </c>
     </row>
-    <row r="53" spans="12:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q53" s="1"/>
+    <row r="53" spans="10:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="K53">
+        <f t="shared" si="28"/>
+        <v>13</v>
+      </c>
+      <c r="L53" s="1">
+        <v>92.982456140350806</v>
+      </c>
+      <c r="M53" s="1">
+        <v>93.162456140350812</v>
+      </c>
+      <c r="N53" s="1">
+        <v>92.71245614035081</v>
+      </c>
+      <c r="O53" s="1">
+        <f t="shared" si="16"/>
+        <v>92.952456140350819</v>
+      </c>
+      <c r="P53" s="1">
+        <f t="shared" si="17"/>
+        <v>0.20999999999999375</v>
+      </c>
+      <c r="Q53" s="1">
+        <f t="shared" si="18"/>
+        <v>0.24000000000000909</v>
+      </c>
+      <c r="S53" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="T53" s="1">
+        <v>97.038421052631506</v>
+      </c>
+      <c r="U53" s="1">
+        <v>97.348421052631508</v>
+      </c>
+      <c r="V53" s="1">
+        <f t="shared" si="19"/>
+        <v>97.251754385964844</v>
+      </c>
+      <c r="W53" s="1">
+        <f t="shared" si="20"/>
+        <v>0.11666666666666003</v>
+      </c>
+      <c r="X53" s="1">
+        <f t="shared" si="21"/>
+        <v>0.21333333333333826</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>95.614035087719301</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>94.684035087719295</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>94.714035087719296</v>
+      </c>
+      <c r="AC53" s="1">
+        <f t="shared" si="22"/>
+        <v>95.004035087719288</v>
+      </c>
+      <c r="AD53" s="1">
+        <f t="shared" si="23"/>
+        <v>0.61000000000001364</v>
+      </c>
+      <c r="AE53" s="1">
+        <f t="shared" si="24"/>
+        <v>0.31999999999999318</v>
+      </c>
+      <c r="AG53" s="1">
+        <v>92.982456140350806</v>
+      </c>
+      <c r="AH53" s="1">
+        <v>92.71245614035081</v>
+      </c>
+      <c r="AI53" s="1">
+        <v>92.71245614035081</v>
+      </c>
+      <c r="AJ53" s="1">
+        <f t="shared" si="25"/>
+        <v>92.802456140350799</v>
+      </c>
+      <c r="AK53" s="1">
+        <f t="shared" si="26"/>
+        <v>0.18000000000000682</v>
+      </c>
+      <c r="AL53" s="1">
+        <f t="shared" si="27"/>
+        <v>8.99999999999892E-2</v>
+      </c>
     </row>
-    <row r="54" spans="12:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q54" s="1"/>
+    <row r="54" spans="10:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="K54">
+        <f t="shared" si="28"/>
+        <v>12</v>
+      </c>
+      <c r="L54" s="1">
+        <v>92.982456140350806</v>
+      </c>
+      <c r="M54" s="1">
+        <v>93.892456140350802</v>
+      </c>
+      <c r="N54" s="1">
+        <v>93.352456140350796</v>
+      </c>
+      <c r="O54" s="1">
+        <f t="shared" si="16"/>
+        <v>93.409122807017468</v>
+      </c>
+      <c r="P54" s="1">
+        <f t="shared" si="17"/>
+        <v>0.48333333333333428</v>
+      </c>
+      <c r="Q54" s="1">
+        <f t="shared" si="18"/>
+        <v>0.42666666666666231</v>
+      </c>
+      <c r="S54" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="T54" s="1">
+        <v>96.928421052631506</v>
+      </c>
+      <c r="U54" s="1">
+        <v>97.058421052631502</v>
+      </c>
+      <c r="V54" s="1">
+        <f t="shared" si="19"/>
+        <v>97.118421052631504</v>
+      </c>
+      <c r="W54" s="1">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="X54" s="1">
+        <f t="shared" si="21"/>
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>94.684035087719295</v>
+      </c>
+      <c r="AA54" s="1">
+        <v>94.806842105263101</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>95.614035087719301</v>
+      </c>
+      <c r="AC54" s="1">
+        <f t="shared" si="22"/>
+        <v>95.03497076023389</v>
+      </c>
+      <c r="AD54" s="1">
+        <f t="shared" si="23"/>
+        <v>0.57906432748541192</v>
+      </c>
+      <c r="AE54" s="1">
+        <f t="shared" si="24"/>
+        <v>0.3509356725145949</v>
+      </c>
+      <c r="AG54" s="1">
+        <v>92.982456140350806</v>
+      </c>
+      <c r="AH54" s="1">
+        <v>92.112456140350801</v>
+      </c>
+      <c r="AI54" s="1">
+        <v>92.312456140350804</v>
+      </c>
+      <c r="AJ54" s="1">
+        <f t="shared" si="25"/>
+        <v>92.46912280701747</v>
+      </c>
+      <c r="AK54" s="1">
+        <f t="shared" si="26"/>
+        <v>0.51333333333333542</v>
+      </c>
+      <c r="AL54" s="1">
+        <f t="shared" si="27"/>
+        <v>0.35666666666666913</v>
+      </c>
     </row>
-    <row r="55" spans="12:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q55" s="1"/>
+    <row r="55" spans="10:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="K55">
+        <f t="shared" si="28"/>
+        <v>11</v>
+      </c>
+      <c r="L55" s="1">
+        <v>92.982456140350806</v>
+      </c>
+      <c r="M55" s="1">
+        <v>93.362456140350801</v>
+      </c>
+      <c r="N55" s="1">
+        <v>93.152456140350807</v>
+      </c>
+      <c r="O55" s="1">
+        <f t="shared" si="16"/>
+        <v>93.165789473684143</v>
+      </c>
+      <c r="P55" s="1">
+        <f t="shared" si="17"/>
+        <v>0.19666666666665833</v>
+      </c>
+      <c r="Q55" s="1">
+        <f t="shared" si="18"/>
+        <v>0.18333333333333712</v>
+      </c>
+      <c r="S55" s="1">
+        <v>94.736842105263094</v>
+      </c>
+      <c r="T55" s="1">
+        <v>94.046842105263096</v>
+      </c>
+      <c r="U55" s="1">
+        <v>94.516842105263095</v>
+      </c>
+      <c r="V55" s="1">
+        <f t="shared" si="19"/>
+        <v>94.433508771929766</v>
+      </c>
+      <c r="W55" s="1">
+        <f t="shared" si="20"/>
+        <v>0.30333333333332746</v>
+      </c>
+      <c r="X55" s="1">
+        <f t="shared" si="21"/>
+        <v>0.38666666666667027</v>
+      </c>
+      <c r="Z55" s="1">
+        <v>94.736842105263094</v>
+      </c>
+      <c r="AA55" s="1">
+        <v>94.546842105263096</v>
+      </c>
+      <c r="AB55" s="1">
+        <v>94.806842105263101</v>
+      </c>
+      <c r="AC55" s="1">
+        <f t="shared" si="22"/>
+        <v>94.696842105263102</v>
+      </c>
+      <c r="AD55" s="1">
+        <f t="shared" si="23"/>
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="AE55" s="1">
+        <f t="shared" si="24"/>
+        <v>0.15000000000000568</v>
+      </c>
+      <c r="AG55" s="1">
+        <v>92.982456140350806</v>
+      </c>
+      <c r="AH55" s="1">
+        <v>92.922456140350803</v>
+      </c>
+      <c r="AI55" s="1">
+        <v>93.052456140350799</v>
+      </c>
+      <c r="AJ55" s="1">
+        <f t="shared" si="25"/>
+        <v>92.985789473684136</v>
+      </c>
+      <c r="AK55" s="1">
+        <f t="shared" si="26"/>
+        <v>6.6666666666662877E-2</v>
+      </c>
+      <c r="AL55" s="1">
+        <f t="shared" si="27"/>
+        <v>6.3333333333332575E-2</v>
+      </c>
     </row>
-    <row r="56" spans="12:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q56" s="1"/>
+    <row r="56" spans="10:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="K56">
+        <f t="shared" si="28"/>
+        <v>10</v>
+      </c>
+      <c r="L56" s="1">
+        <v>92.982456140350806</v>
+      </c>
+      <c r="M56" s="1">
+        <v>93.552456140350799</v>
+      </c>
+      <c r="N56" s="1">
+        <v>92.982456140350806</v>
+      </c>
+      <c r="O56" s="1">
+        <f t="shared" si="16"/>
+        <v>93.172456140350803</v>
+      </c>
+      <c r="P56" s="1">
+        <f t="shared" si="17"/>
+        <v>0.37999999999999545</v>
+      </c>
+      <c r="Q56" s="1">
+        <f t="shared" si="18"/>
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="S56" s="1">
+        <v>95.614035087719301</v>
+      </c>
+      <c r="T56" s="1">
+        <v>94.954035087719305</v>
+      </c>
+      <c r="U56" s="1">
+        <v>95.274035087719298</v>
+      </c>
+      <c r="V56" s="1">
+        <f t="shared" si="19"/>
+        <v>95.280701754385973</v>
+      </c>
+      <c r="W56" s="1">
+        <f t="shared" si="20"/>
+        <v>0.3333333333333286</v>
+      </c>
+      <c r="X56" s="1">
+        <f t="shared" si="21"/>
+        <v>0.32666666666666799</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>93.859649122806999</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>93.809649122807002</v>
+      </c>
+      <c r="AB56" s="1">
+        <v>94.639649122807</v>
+      </c>
+      <c r="AC56" s="1">
+        <f t="shared" si="22"/>
+        <v>94.102982456140339</v>
+      </c>
+      <c r="AD56" s="1">
+        <f t="shared" si="23"/>
+        <v>0.53666666666666174</v>
+      </c>
+      <c r="AE56" s="1">
+        <f t="shared" si="24"/>
+        <v>0.29333333333333655</v>
+      </c>
+      <c r="AG56" s="1">
+        <v>92.982456140350806</v>
+      </c>
+      <c r="AH56" s="1">
+        <v>92.562456140350804</v>
+      </c>
+      <c r="AI56" s="1">
+        <v>93.3324561403508</v>
+      </c>
+      <c r="AJ56" s="1">
+        <f t="shared" si="25"/>
+        <v>92.959122807017479</v>
+      </c>
+      <c r="AK56" s="1">
+        <f t="shared" si="26"/>
+        <v>0.37333333333332064</v>
+      </c>
+      <c r="AL56" s="1">
+        <f t="shared" si="27"/>
+        <v>0.39666666666667538</v>
+      </c>
     </row>
-    <row r="57" spans="12:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q57" s="1"/>
+    <row r="57" spans="10:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="K57">
+        <f t="shared" si="28"/>
+        <v>9</v>
+      </c>
+      <c r="L57" s="1">
+        <v>93.859649122806999</v>
+      </c>
+      <c r="M57" s="1">
+        <v>94.599649122806994</v>
+      </c>
+      <c r="N57" s="1">
+        <v>93.859649122806999</v>
+      </c>
+      <c r="O57" s="1">
+        <f t="shared" si="16"/>
+        <v>94.106315789473669</v>
+      </c>
+      <c r="P57" s="1">
+        <f t="shared" si="17"/>
+        <v>0.49333333333332519</v>
+      </c>
+      <c r="Q57" s="1">
+        <f t="shared" si="18"/>
+        <v>0.2466666666666697</v>
+      </c>
+      <c r="S57" s="1">
+        <v>97.368421052631504</v>
+      </c>
+      <c r="T57" s="1">
+        <v>96.378421052631509</v>
+      </c>
+      <c r="U57" s="1">
+        <v>96.678421052631506</v>
+      </c>
+      <c r="V57" s="1">
+        <f t="shared" si="19"/>
+        <v>96.808421052631502</v>
+      </c>
+      <c r="W57" s="1">
+        <f t="shared" si="20"/>
+        <v>0.56000000000000227</v>
+      </c>
+      <c r="X57" s="1">
+        <f t="shared" si="21"/>
+        <v>0.42999999999999261</v>
+      </c>
+      <c r="Z57" s="1">
+        <v>95.614035087719301</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>95.344035087719305</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>95.974035087719301</v>
+      </c>
+      <c r="AC57" s="1">
+        <f t="shared" si="22"/>
+        <v>95.644035087719303</v>
+      </c>
+      <c r="AD57" s="1">
+        <f t="shared" si="23"/>
+        <v>0.32999999999999829</v>
+      </c>
+      <c r="AE57" s="1">
+        <f t="shared" si="24"/>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="AG57" s="1">
+        <v>93.859649122806999</v>
+      </c>
+      <c r="AH57" s="1">
+        <v>93.169649122807002</v>
+      </c>
+      <c r="AI57" s="1">
+        <v>93.849649122807008</v>
+      </c>
+      <c r="AJ57" s="1">
+        <f t="shared" si="25"/>
+        <v>93.626315789473665</v>
+      </c>
+      <c r="AK57" s="1">
+        <f t="shared" si="26"/>
+        <v>0.23333333333333428</v>
+      </c>
+      <c r="AL57" s="1">
+        <f t="shared" si="27"/>
+        <v>0.45666666666666345</v>
+      </c>
     </row>
-    <row r="58" spans="12:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q58" s="1"/>
+    <row r="58" spans="10:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="K58">
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+      <c r="L58" s="1">
+        <v>94.736842105263094</v>
+      </c>
+      <c r="M58" s="1">
+        <v>95.486842105263094</v>
+      </c>
+      <c r="N58" s="1">
+        <v>95.176842105263091</v>
+      </c>
+      <c r="O58" s="1">
+        <f t="shared" si="16"/>
+        <v>95.133508771929769</v>
+      </c>
+      <c r="P58" s="1">
+        <f t="shared" si="17"/>
+        <v>0.35333333333332462</v>
+      </c>
+      <c r="Q58" s="1">
+        <f t="shared" si="18"/>
+        <v>0.39666666666667538</v>
+      </c>
+      <c r="S58" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="T58" s="1">
+        <v>95.581228070175399</v>
+      </c>
+      <c r="U58" s="1">
+        <v>96.211228070175395</v>
+      </c>
+      <c r="V58" s="1">
+        <f t="shared" si="19"/>
+        <v>96.094561403508735</v>
+      </c>
+      <c r="W58" s="1">
+        <f t="shared" si="20"/>
+        <v>0.39666666666666117</v>
+      </c>
+      <c r="X58" s="1">
+        <f t="shared" si="21"/>
+        <v>0.51333333333333542</v>
+      </c>
+      <c r="Z58" s="1">
+        <v>92.105263157894697</v>
+      </c>
+      <c r="AA58" s="1">
+        <v>91.745263157894698</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>92.275263157894699</v>
+      </c>
+      <c r="AC58" s="1">
+        <f t="shared" si="22"/>
+        <v>92.041929824561365</v>
+      </c>
+      <c r="AD58" s="1">
+        <f t="shared" si="23"/>
+        <v>0.23333333333333428</v>
+      </c>
+      <c r="AE58" s="1">
+        <f t="shared" si="24"/>
+        <v>0.29666666666666686</v>
+      </c>
+      <c r="AG58" s="1">
+        <v>94.736842105263094</v>
+      </c>
+      <c r="AH58" s="1">
+        <v>94.686842105263096</v>
+      </c>
+      <c r="AI58" s="1">
+        <v>94.726842105263103</v>
+      </c>
+      <c r="AJ58" s="1">
+        <f t="shared" si="25"/>
+        <v>94.716842105263098</v>
+      </c>
+      <c r="AK58" s="1">
+        <f t="shared" si="26"/>
+        <v>1.9999999999996021E-2</v>
+      </c>
+      <c r="AL58" s="1">
+        <f t="shared" si="27"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
     </row>
-    <row r="59" spans="12:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q59" s="1"/>
+    <row r="59" spans="10:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="K59">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+      <c r="L59" s="1">
+        <v>94.736842105263094</v>
+      </c>
+      <c r="M59" s="1">
+        <v>95.436842105263096</v>
+      </c>
+      <c r="N59" s="1">
+        <v>94.746842105263099</v>
+      </c>
+      <c r="O59" s="1">
+        <f t="shared" si="16"/>
+        <v>94.973508771929758</v>
+      </c>
+      <c r="P59" s="1">
+        <f t="shared" si="17"/>
+        <v>0.46333333333333826</v>
+      </c>
+      <c r="Q59" s="1">
+        <f t="shared" si="18"/>
+        <v>0.23666666666666458</v>
+      </c>
+      <c r="S59" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="T59" s="1">
+        <v>95.671228070175403</v>
+      </c>
+      <c r="U59" s="1">
+        <v>96.141228070175401</v>
+      </c>
+      <c r="V59" s="1">
+        <f t="shared" si="19"/>
+        <v>96.101228070175395</v>
+      </c>
+      <c r="W59" s="1">
+        <f t="shared" si="20"/>
+        <v>0.39000000000000057</v>
+      </c>
+      <c r="X59" s="1">
+        <f t="shared" si="21"/>
+        <v>0.42999999999999261</v>
+      </c>
+      <c r="Z59" s="1">
+        <v>92.982456140350806</v>
+      </c>
+      <c r="AA59" s="1">
+        <v>92.202456140350805</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>92.272456140350798</v>
+      </c>
+      <c r="AC59" s="1">
+        <f t="shared" si="22"/>
+        <v>92.485789473684136</v>
+      </c>
+      <c r="AD59" s="1">
+        <f t="shared" si="23"/>
+        <v>0.4966666666666697</v>
+      </c>
+      <c r="AE59" s="1">
+        <f t="shared" si="24"/>
+        <v>0.28333333333333144</v>
+      </c>
+      <c r="AG59" s="1">
+        <v>94.736842105263094</v>
+      </c>
+      <c r="AH59" s="1">
+        <v>94.266842105263095</v>
+      </c>
+      <c r="AI59" s="1">
+        <v>94.596842105263093</v>
+      </c>
+      <c r="AJ59" s="1">
+        <f t="shared" si="25"/>
+        <v>94.53350877192976</v>
+      </c>
+      <c r="AK59" s="1">
+        <f t="shared" si="26"/>
+        <v>0.20333333333333314</v>
+      </c>
+      <c r="AL59" s="1">
+        <f t="shared" si="27"/>
+        <v>0.26666666666666572</v>
+      </c>
     </row>
-    <row r="60" spans="12:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q60" s="1"/>
+    <row r="60" spans="10:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="K60">
+        <f t="shared" si="28"/>
+        <v>6</v>
+      </c>
+      <c r="L60" s="1">
+        <v>93.859649122806999</v>
+      </c>
+      <c r="M60" s="1">
+        <v>94.719649122806999</v>
+      </c>
+      <c r="N60" s="1">
+        <v>94.359649122806999</v>
+      </c>
+      <c r="O60" s="1">
+        <f t="shared" si="16"/>
+        <v>94.312982456140332</v>
+      </c>
+      <c r="P60" s="1">
+        <f t="shared" si="17"/>
+        <v>0.40666666666666629</v>
+      </c>
+      <c r="Q60" s="1">
+        <f t="shared" si="18"/>
+        <v>0.45333333333333314</v>
+      </c>
+      <c r="S60" s="1">
+        <v>96.491228070175396</v>
+      </c>
+      <c r="T60" s="1">
+        <v>95.681228070175393</v>
+      </c>
+      <c r="U60" s="1">
+        <v>96.621228070175391</v>
+      </c>
+      <c r="V60" s="1">
+        <f t="shared" si="19"/>
+        <v>96.264561403508722</v>
+      </c>
+      <c r="W60" s="1">
+        <f t="shared" si="20"/>
+        <v>0.35666666666666913</v>
+      </c>
+      <c r="X60" s="1">
+        <f t="shared" si="21"/>
+        <v>0.5833333333333286</v>
+      </c>
+      <c r="Z60" s="1">
+        <v>92.982456140350806</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>92.272456140350812</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>92.302456140350813</v>
+      </c>
+      <c r="AC60" s="1">
+        <f t="shared" si="22"/>
+        <v>92.519122807017467</v>
+      </c>
+      <c r="AD60" s="1">
+        <f t="shared" si="23"/>
+        <v>0.46333333333333826</v>
+      </c>
+      <c r="AE60" s="1">
+        <f t="shared" si="24"/>
+        <v>0.24666666666665549</v>
+      </c>
+      <c r="AG60" s="1">
+        <v>94.266842105263095</v>
+      </c>
+      <c r="AH60" s="1">
+        <v>93.949649122807003</v>
+      </c>
+      <c r="AI60" s="1">
+        <v>94.736842105263094</v>
+      </c>
+      <c r="AJ60" s="1">
+        <f t="shared" si="25"/>
+        <v>94.317777777777721</v>
+      </c>
+      <c r="AK60" s="1">
+        <f t="shared" si="26"/>
+        <v>0.4190643274853727</v>
+      </c>
+      <c r="AL60" s="1">
+        <f t="shared" si="27"/>
+        <v>0.36812865497071812</v>
+      </c>
     </row>
-    <row r="61" spans="12:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q61" s="1"/>
+    <row r="61" spans="10:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="K61">
+        <f>K60-1</f>
+        <v>5</v>
+      </c>
+      <c r="L61" s="1">
+        <v>92.982456140350806</v>
+      </c>
+      <c r="M61" s="1">
+        <v>93.362456140350801</v>
+      </c>
+      <c r="N61" s="1">
+        <v>93.072456140350795</v>
+      </c>
+      <c r="O61" s="1">
+        <f t="shared" si="16"/>
+        <v>93.139122807017472</v>
+      </c>
+      <c r="P61" s="1">
+        <f t="shared" si="17"/>
+        <v>0.22333333333332916</v>
+      </c>
+      <c r="Q61" s="1">
+        <f t="shared" si="18"/>
+        <v>0.15666666666666629</v>
+      </c>
+      <c r="S61" s="1">
+        <v>95.614035087719301</v>
+      </c>
+      <c r="T61" s="1">
+        <v>95.254035087719302</v>
+      </c>
+      <c r="U61" s="1">
+        <v>95.844035087719305</v>
+      </c>
+      <c r="V61" s="1">
+        <f t="shared" si="19"/>
+        <v>95.570701754385979</v>
+      </c>
+      <c r="W61" s="1">
+        <f t="shared" si="20"/>
+        <v>0.27333333333332632</v>
+      </c>
+      <c r="X61" s="1">
+        <f t="shared" si="21"/>
+        <v>0.31666666666667709</v>
+      </c>
+      <c r="Z61" s="1">
+        <v>92.105263157894697</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>91.355263157894697</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>91.375263157894693</v>
+      </c>
+      <c r="AC61" s="1">
+        <f t="shared" si="22"/>
+        <v>91.611929824561358</v>
+      </c>
+      <c r="AD61" s="1">
+        <f t="shared" si="23"/>
+        <v>0.4933333333333394</v>
+      </c>
+      <c r="AE61" s="1">
+        <f t="shared" si="24"/>
+        <v>0.2566666666666606</v>
+      </c>
+      <c r="AG61" s="1">
+        <v>93.859649122806999</v>
+      </c>
+      <c r="AH61" s="1">
+        <v>93.339649122807003</v>
+      </c>
+      <c r="AI61" s="1">
+        <v>93.949649122807003</v>
+      </c>
+      <c r="AJ61" s="1">
+        <f t="shared" si="25"/>
+        <v>93.716315789473654</v>
+      </c>
+      <c r="AK61" s="1">
+        <f t="shared" si="26"/>
+        <v>0.23333333333334849</v>
+      </c>
+      <c r="AL61" s="1">
+        <f t="shared" si="27"/>
+        <v>0.37666666666665094</v>
+      </c>
     </row>
-    <row r="62" spans="12:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q62" s="1"/>
+    <row r="62" spans="10:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="K62">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="L62" s="1">
+        <v>93.859649122806999</v>
+      </c>
+      <c r="M62" s="1">
+        <v>94.719649122806999</v>
+      </c>
+      <c r="N62" s="1">
+        <v>93.949649122807003</v>
+      </c>
+      <c r="O62" s="1">
+        <f t="shared" si="16"/>
+        <v>94.176315789473662</v>
+      </c>
+      <c r="P62" s="1">
+        <f t="shared" si="17"/>
+        <v>0.54333333333333655</v>
+      </c>
+      <c r="Q62" s="1">
+        <f t="shared" si="18"/>
+        <v>0.31666666666666288</v>
+      </c>
+      <c r="S62" s="1">
+        <v>93.859649122806999</v>
+      </c>
+      <c r="T62" s="1">
+        <v>93.159649122806997</v>
+      </c>
+      <c r="U62" s="1">
+        <v>93.569649122806993</v>
+      </c>
+      <c r="V62" s="1">
+        <f t="shared" si="19"/>
+        <v>93.529649122806987</v>
+      </c>
+      <c r="W62" s="1">
+        <f t="shared" si="20"/>
+        <v>0.33000000000001251</v>
+      </c>
+      <c r="X62" s="1">
+        <f t="shared" si="21"/>
+        <v>0.36999999999999034</v>
+      </c>
+      <c r="Z62" s="1">
+        <v>91.228070175438503</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>90.528070175438501</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>90.678070175438506</v>
+      </c>
+      <c r="AC62" s="1">
+        <f t="shared" si="22"/>
+        <v>90.811403508771832</v>
+      </c>
+      <c r="AD62" s="1">
+        <f t="shared" si="23"/>
+        <v>0.4166666666666714</v>
+      </c>
+      <c r="AE62" s="1">
+        <f t="shared" si="24"/>
+        <v>0.28333333333333144</v>
+      </c>
+      <c r="AG62" s="1">
+        <v>94.736842105263094</v>
+      </c>
+      <c r="AH62" s="1">
+        <v>93.796842105263096</v>
+      </c>
+      <c r="AI62" s="1">
+        <v>94.266842105263095</v>
+      </c>
+      <c r="AJ62" s="1">
+        <f t="shared" si="25"/>
+        <v>94.266842105263095</v>
+      </c>
+      <c r="AK62" s="1">
+        <f t="shared" si="26"/>
+        <v>0.46999999999999886</v>
+      </c>
+      <c r="AL62" s="1">
+        <f t="shared" si="27"/>
+        <v>0.46999999999999886</v>
+      </c>
     </row>
-    <row r="63" spans="12:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q63" s="1"/>
+    <row r="63" spans="10:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="K63">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="L63" s="1">
+        <v>95.614035087719301</v>
+      </c>
+      <c r="M63" s="1">
+        <v>96.564035087719304</v>
+      </c>
+      <c r="N63" s="1">
+        <v>96.434035087719309</v>
+      </c>
+      <c r="O63" s="1">
+        <f t="shared" si="16"/>
+        <v>96.204035087719305</v>
+      </c>
+      <c r="P63" s="1">
+        <f t="shared" si="17"/>
+        <v>0.35999999999999943</v>
+      </c>
+      <c r="Q63" s="1">
+        <f t="shared" si="18"/>
+        <v>0.59000000000000341</v>
+      </c>
+      <c r="S63" s="1">
+        <v>93.159649122806997</v>
+      </c>
+      <c r="T63" s="1">
+        <v>92.422456140350803</v>
+      </c>
+      <c r="U63" s="1">
+        <v>93.859649122806999</v>
+      </c>
+      <c r="V63" s="1">
+        <f t="shared" si="19"/>
+        <v>93.147251461988276</v>
+      </c>
+      <c r="W63" s="1">
+        <f t="shared" si="20"/>
+        <v>0.71239766081872347</v>
+      </c>
+      <c r="X63" s="1">
+        <f t="shared" si="21"/>
+        <v>0.72479532163747251</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>92.982456140350806</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>92.452456140350805</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>93.3324561403508</v>
+      </c>
+      <c r="AC63" s="1">
+        <f t="shared" si="22"/>
+        <v>92.922456140350803</v>
+      </c>
+      <c r="AD63" s="1">
+        <f t="shared" si="23"/>
+        <v>0.40999999999999659</v>
+      </c>
+      <c r="AE63" s="1">
+        <f t="shared" si="24"/>
+        <v>0.46999999999999886</v>
+      </c>
+      <c r="AG63" s="1">
+        <v>92.982456140350806</v>
+      </c>
+      <c r="AH63" s="1">
+        <v>92.412456140350812</v>
+      </c>
+      <c r="AI63" s="1">
+        <v>93.142456140350816</v>
+      </c>
+      <c r="AJ63" s="1">
+        <f t="shared" si="25"/>
+        <v>92.845789473684135</v>
+      </c>
+      <c r="AK63" s="1">
+        <f t="shared" si="26"/>
+        <v>0.29666666666668107</v>
+      </c>
+      <c r="AL63" s="1">
+        <f t="shared" si="27"/>
+        <v>0.43333333333332291</v>
+      </c>
+    </row>
+    <row r="64" spans="10:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="K64">
+        <f>K63-1</f>
+        <v>2</v>
+      </c>
+      <c r="L64" s="1">
+        <v>92.982456140350806</v>
+      </c>
+      <c r="M64" s="1">
+        <v>93.96245614035081</v>
+      </c>
+      <c r="N64" s="1">
+        <v>93.422456140350803</v>
+      </c>
+      <c r="O64" s="1">
+        <f t="shared" si="16"/>
+        <v>93.455789473684135</v>
+      </c>
+      <c r="P64" s="1">
+        <f t="shared" si="17"/>
+        <v>0.50666666666667481</v>
+      </c>
+      <c r="Q64" s="1">
+        <f t="shared" si="18"/>
+        <v>0.47333333333332916</v>
+      </c>
+      <c r="S64" s="1">
+        <v>92.982456140350806</v>
+      </c>
+      <c r="T64" s="1">
+        <v>92.402456140350807</v>
+      </c>
+      <c r="U64" s="1">
+        <v>92.422456140350803</v>
+      </c>
+      <c r="V64" s="1">
+        <f t="shared" si="19"/>
+        <v>92.602456140350796</v>
+      </c>
+      <c r="W64" s="1">
+        <f t="shared" si="20"/>
+        <v>0.38000000000000966</v>
+      </c>
+      <c r="X64" s="1">
+        <f t="shared" si="21"/>
+        <v>0.19999999999998863</v>
+      </c>
+      <c r="Z64" s="1">
+        <v>93.859649122806999</v>
+      </c>
+      <c r="AA64" s="1">
+        <v>93.029649122807001</v>
+      </c>
+      <c r="AB64" s="1">
+        <v>93.219649122806999</v>
+      </c>
+      <c r="AC64" s="1">
+        <f t="shared" si="22"/>
+        <v>93.369649122807004</v>
+      </c>
+      <c r="AD64" s="1">
+        <f t="shared" si="23"/>
+        <v>0.48999999999999488</v>
+      </c>
+      <c r="AE64" s="1">
+        <f t="shared" si="24"/>
+        <v>0.34000000000000341</v>
+      </c>
+      <c r="AG64" s="1">
+        <v>93.859649122806999</v>
+      </c>
+      <c r="AH64" s="1">
+        <v>93.579649122806998</v>
+      </c>
+      <c r="AI64" s="1">
+        <v>93.609649122806999</v>
+      </c>
+      <c r="AJ64" s="1">
+        <f t="shared" si="25"/>
+        <v>93.682982456140337</v>
+      </c>
+      <c r="AK64" s="1">
+        <f t="shared" si="26"/>
+        <v>0.17666666666666231</v>
+      </c>
+      <c r="AL64" s="1">
+        <f t="shared" si="27"/>
+        <v>0.10333333333333883</v>
+      </c>
+    </row>
+    <row r="65" spans="11:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="K65">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="L65" s="1">
+        <v>90.350877192982395</v>
+      </c>
+      <c r="M65" s="1">
+        <v>90.500877192982401</v>
+      </c>
+      <c r="N65" s="1">
+        <v>89.640877192982401</v>
+      </c>
+      <c r="O65" s="1">
+        <f t="shared" si="16"/>
+        <v>90.164210526315742</v>
+      </c>
+      <c r="P65" s="1">
+        <f t="shared" si="17"/>
+        <v>0.3366666666666589</v>
+      </c>
+      <c r="Q65" s="1">
+        <f t="shared" si="18"/>
+        <v>0.52333333333334053</v>
+      </c>
+      <c r="S65" s="1">
+        <v>90.350877192982395</v>
+      </c>
+      <c r="T65" s="1">
+        <v>90.070877192982394</v>
+      </c>
+      <c r="U65" s="1">
+        <v>90.780877192982388</v>
+      </c>
+      <c r="V65" s="1">
+        <f t="shared" si="19"/>
+        <v>90.400877192982378</v>
+      </c>
+      <c r="W65" s="1">
+        <f t="shared" si="20"/>
+        <v>0.38000000000000966</v>
+      </c>
+      <c r="X65" s="1">
+        <f t="shared" si="21"/>
+        <v>0.32999999999998408</v>
+      </c>
+      <c r="Z65" s="1">
+        <v>92.105263157894697</v>
+      </c>
+      <c r="AA65" s="1">
+        <v>92.105263157894697</v>
+      </c>
+      <c r="AB65" s="1">
+        <v>92.105263157894697</v>
+      </c>
+      <c r="AC65" s="1">
+        <f t="shared" si="22"/>
+        <v>92.105263157894697</v>
+      </c>
+      <c r="AD65" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AE65" s="1">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="1">
+        <v>90.350877192982395</v>
+      </c>
+      <c r="AH65" s="1">
+        <v>89.770877192982397</v>
+      </c>
+      <c r="AI65" s="1">
+        <v>90.550877192982398</v>
+      </c>
+      <c r="AJ65" s="1">
+        <f t="shared" si="25"/>
+        <v>90.22421052631573</v>
+      </c>
+      <c r="AK65" s="1">
+        <f t="shared" si="26"/>
+        <v>0.32666666666666799</v>
+      </c>
+      <c r="AL65" s="1">
+        <f t="shared" si="27"/>
+        <v>0.45333333333333314</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
